--- a/GOA/Model runs/GOA_22.1.1/Data/GOA_22.1.1_pollock_single_species_1970-2022.xlsx
+++ b/GOA/Model runs/GOA_22.1.1/Data/GOA_22.1.1_pollock_single_species_1970-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="13590" windowHeight="9660" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="510">
   <si>
     <t>Number</t>
   </si>
@@ -25050,8 +25050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25495,7 +25495,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -25679,8 +25679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25741,7 +25741,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="11">
-        <v>708015</v>
+        <v>0.70801499999999995</v>
       </c>
       <c r="I2">
         <v>0.2</v>
@@ -25770,7 +25770,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>428882</v>
+        <v>0.42888199999999999</v>
       </c>
       <c r="I3">
         <v>0.2</v>
@@ -25799,7 +25799,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>487456</v>
+        <v>0.487456</v>
       </c>
       <c r="I4">
         <v>0.2</v>
@@ -25828,7 +25828,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>603188</v>
+        <v>0.60318799999999995</v>
       </c>
       <c r="I5">
         <v>0.2</v>
@@ -25857,7 +25857,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>596187</v>
+        <v>0.59618700000000002</v>
       </c>
       <c r="I6">
         <v>0.2</v>
@@ -25886,7 +25886,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>567746</v>
+        <v>0.56774599999999997</v>
       </c>
       <c r="I7">
         <v>0.2</v>
@@ -25915,7 +25915,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>492512</v>
+        <v>0.49251200000000001</v>
       </c>
       <c r="I8">
         <v>0.2</v>
@@ -25944,7 +25944,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>327874</v>
+        <v>0.327874</v>
       </c>
       <c r="I9">
         <v>0.2</v>
@@ -25973,7 +25973,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>215958</v>
+        <v>0.21595800000000001</v>
       </c>
       <c r="I10">
         <v>0.2</v>
@@ -26002,7 +26002,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>243278</v>
+        <v>0.24327799999999999</v>
       </c>
       <c r="I11">
         <v>0.2</v>
@@ -26031,7 +26031,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>308498</v>
+        <v>0.30849799999999999</v>
       </c>
       <c r="I12">
         <v>0.2</v>
@@ -26060,7 +26060,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>322281</v>
+        <v>0.32228099999999998</v>
       </c>
       <c r="I13">
         <v>0.2</v>
@@ -26089,7 +26089,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>324851.63936180313</v>
+        <v>0.32485163936180311</v>
       </c>
       <c r="I14">
         <v>0.2</v>
@@ -26118,7 +26118,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>237235.94461411537</v>
+        <v>0.23723594461411537</v>
       </c>
       <c r="I15">
         <v>0.2</v>
@@ -26147,7 +26147,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>165682.21324850965</v>
+        <v>0.16568221324850965</v>
       </c>
       <c r="I16">
         <v>0.2</v>
@@ -26176,7 +26176,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="7">
-        <v>139094.50286819821</v>
+        <v>0.13909450286819822</v>
       </c>
       <c r="I17">
         <v>0.2</v>
@@ -26205,7 +26205,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="7">
-        <v>160812.58068449338</v>
+        <v>0.16081258068449339</v>
       </c>
       <c r="I18">
         <v>0.2</v>
@@ -26234,7 +26234,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="7">
-        <v>395316.33260923723</v>
+        <v>0.39531633260923721</v>
       </c>
       <c r="I19">
         <v>0.2</v>
@@ -26263,7 +26263,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="7">
-        <v>264812.86109645833</v>
+        <v>0.26481286109645835</v>
       </c>
       <c r="I20">
         <v>0.2</v>
@@ -26289,7 +26289,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="7">
-        <v>716040.5417608167</v>
+        <v>0.71604054176081666</v>
       </c>
       <c r="I21">
         <v>0.2</v>
@@ -26318,7 +26318,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="7">
-        <v>609334.58750158781</v>
+        <v>0.60933458750158787</v>
       </c>
       <c r="I22">
         <v>0.2</v>
@@ -26347,7 +26347,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="7">
-        <v>837778.30787678831</v>
+        <v>0.83777830787678831</v>
       </c>
       <c r="I23">
         <v>0.2</v>
@@ -26376,7 +26376,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="7">
-        <v>666528.62213476561</v>
+        <v>0.6665286221347656</v>
       </c>
       <c r="I24">
         <v>0.2</v>
@@ -26405,7 +26405,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="7">
-        <v>1457281.5736965653</v>
+        <v>1.4572815736965654</v>
       </c>
       <c r="I25">
         <v>0.2</v>
@@ -26434,7 +26434,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="7">
-        <v>1293463.457340301</v>
+        <v>1.293463457340301</v>
       </c>
       <c r="I26">
         <v>0.2</v>
@@ -26463,7 +26463,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1117022.2628767998</v>
+        <v>1.1170222628767998</v>
       </c>
       <c r="I27">
         <v>0.2</v>
@@ -26492,7 +26492,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>450667.8705629406</v>
+        <v>0.45066787056294061</v>
       </c>
       <c r="I28">
         <v>0.2</v>
@@ -26521,7 +26521,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>450668.52576215606</v>
+        <v>0.45066852576215605</v>
       </c>
       <c r="I29">
         <v>0.2</v>
@@ -26550,7 +26550,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <v>355384.46485053026</v>
+        <v>0.35538446485053027</v>
       </c>
       <c r="I30">
         <v>0.2</v>
@@ -26579,7 +26579,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>817040.06075000006</v>
+        <v>0.81704006075000002</v>
       </c>
       <c r="I31">
         <v>0.11702665064588846</v>
@@ -26608,7 +26608,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>747942.32949999999</v>
+        <v>0.74794232949999995</v>
       </c>
       <c r="I32">
         <v>0.15902369917376172</v>
@@ -26637,7 +26637,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>659603.96250000002</v>
+        <v>0.65960396249999997</v>
       </c>
       <c r="I33">
         <v>0.14598472476251437</v>
@@ -26666,7 +26666,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>601968.51530606789</v>
+        <v>0.60196851530606788</v>
       </c>
       <c r="I34">
         <v>0.38377936526004713</v>
@@ -26695,7 +26695,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>220140.54</v>
+        <v>0.22014054</v>
       </c>
       <c r="I35">
         <v>0.29765934120245485</v>
@@ -26724,7 +26724,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>394333.35547252046</v>
+        <v>0.39433335547252046</v>
       </c>
       <c r="I36">
         <v>0.1201167497000875</v>
@@ -26753,7 +26753,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>354208.89608300559</v>
+        <v>0.3542088960830056</v>
       </c>
       <c r="I37">
         <v>0.15366059090831735</v>
@@ -26782,7 +26782,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>278540.57492040709</v>
+        <v>0.27854057492040707</v>
       </c>
       <c r="I38">
         <v>0.13851995813807683</v>
@@ -26811,7 +26811,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>662556.58954904811</v>
+        <v>0.66255658954904806</v>
       </c>
       <c r="I39">
         <v>0.15245328583382881</v>
@@ -26840,7 +26840,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>660207.11557035346</v>
+        <v>0.6602071155703535</v>
       </c>
       <c r="I40">
         <v>0.14576403250106171</v>
@@ -26869,7 +26869,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>947876.76296068367</v>
+        <v>0.94787676296068368</v>
       </c>
       <c r="I41">
         <v>0.21086392026802434</v>
@@ -26898,7 +26898,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>707774.38600949419</v>
+        <v>0.70777438600949416</v>
       </c>
       <c r="I42">
         <v>0.16016331912790172</v>
@@ -26927,7 +26927,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>288943.27101473534</v>
+        <v>0.28894327101473533</v>
       </c>
       <c r="I43">
         <v>0.43639305844832282</v>
@@ -26956,7 +26956,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>257604.33237040002</v>
+        <v>0.25760433237040004</v>
       </c>
       <c r="I44">
         <v>0.23905541440948261</v>
@@ -26985,7 +26985,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>494743.0588458812</v>
+        <v>0.49474305884588121</v>
       </c>
       <c r="I45">
         <v>0.16573108765189276</v>
@@ -27014,7 +27014,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>207295.347369911</v>
+        <v>0.20729534736991101</v>
       </c>
       <c r="I46">
         <v>0.24955958599547901</v>
@@ -27043,7 +27043,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>303310.43489645299</v>
+        <v>0.30331043489645299</v>
       </c>
       <c r="I47">
         <v>0.221716380736108</v>
@@ -27072,7 +27072,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>161439.31665025398</v>
+        <v>0.16143931665025399</v>
       </c>
       <c r="I48">
         <v>0.23134279854244599</v>
@@ -27101,7 +27101,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>210451.502140995</v>
+        <v>0.21045150214099501</v>
       </c>
       <c r="I49">
         <v>0.35043117224909798</v>
@@ -27130,7 +27130,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>148403.39078206898</v>
+        <v>0.14840339078206899</v>
       </c>
       <c r="I50">
         <v>0.26253503769488301</v>
@@ -27159,7 +27159,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>125561.26592756501</v>
+        <v>0.125561265927565</v>
       </c>
       <c r="I51">
         <v>0.26374249488047502</v>
@@ -27188,7 +27188,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>158042.71272917002</v>
+        <v>0.15804271272917</v>
       </c>
       <c r="I52">
         <v>0.275369391682107</v>
@@ -27217,7 +27217,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>159552.93585807501</v>
+        <v>0.15955293585807501</v>
       </c>
       <c r="I53">
         <v>0.30704146942962701</v>
@@ -27246,7 +27246,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>81433.387280597497</v>
+        <v>8.14333872805975E-2</v>
       </c>
       <c r="I54">
         <v>0.29821770725990598</v>
@@ -27275,7 +27275,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>170339.405614925</v>
+        <v>0.170339405614925</v>
       </c>
       <c r="I55">
         <v>0.235099056866272</v>
@@ -27304,7 +27304,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>127161.53962370699</v>
+        <v>0.12716153962370699</v>
       </c>
       <c r="I56">
         <v>0.241744855345291</v>
@@ -27333,7 +27333,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>110504.22314772299</v>
+        <v>0.110504223147723</v>
       </c>
       <c r="I57">
         <v>0.25201419573266798</v>
@@ -27362,7 +27362,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>168348.79195838101</v>
+        <v>0.16834879195838101</v>
       </c>
       <c r="I58">
         <v>0.24289771193854301</v>
@@ -27391,7 +27391,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>133195.10922338901</v>
+        <v>0.13319510922338901</v>
       </c>
       <c r="I59">
         <v>0.24905213018615199</v>
@@ -27420,7 +27420,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>142512.84808035099</v>
+        <v>0.142512848080351</v>
       </c>
       <c r="I60">
         <v>0.24836021000099601</v>
@@ -27449,7 +27449,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>119976.450388041</v>
+        <v>0.119976450388041</v>
       </c>
       <c r="I61">
         <v>0.24457257953535599</v>
@@ -27478,7 +27478,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>146313.64788632799</v>
+        <v>0.146313647886328</v>
       </c>
       <c r="I62">
         <v>0.25350440809318697</v>
@@ -27507,7 +27507,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>110571.252436478</v>
+        <v>0.110571252436478</v>
       </c>
       <c r="I63">
         <v>0.269948538878234</v>
@@ -27536,7 +27536,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>92390.947855216305</v>
+        <v>9.2390947855216302E-2</v>
       </c>
       <c r="I64">
         <v>0.25572708033346297</v>
@@ -27565,7 +27565,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>116155.02023871301</v>
+        <v>0.11615502023871301</v>
       </c>
       <c r="I65">
         <v>0.25445579688941999</v>
@@ -27594,7 +27594,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>142913.913087063</v>
+        <v>0.142913913087063</v>
       </c>
       <c r="I66">
         <v>0.25915727412806</v>
@@ -27623,7 +27623,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>212202.06356398299</v>
+        <v>0.212202063563983</v>
       </c>
       <c r="I67">
         <v>0.24479594189123</v>
@@ -27652,7 +27652,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>189236.8375083</v>
+        <v>0.1892368375083</v>
       </c>
       <c r="I68">
         <v>0.25163622661447999</v>
@@ -27681,7 +27681,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>189616.55482346303</v>
+        <v>0.18961655482346301</v>
       </c>
       <c r="I69">
         <v>0.24407982762726199</v>
@@ -27710,7 +27710,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>254895.16443541698</v>
+        <v>0.25489516443541699</v>
       </c>
       <c r="I70">
         <v>0.247567490068902</v>
@@ -27739,7 +27739,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>155044.86741775001</v>
+        <v>0.15504486741775</v>
       </c>
       <c r="I71">
         <v>0.199609586626006</v>
@@ -27768,7 +27768,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>131167.305416827</v>
+        <v>0.131167305416827</v>
       </c>
       <c r="I72">
         <v>0.21657389023117701</v>
@@ -27797,7 +27797,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>53389.918843509404</v>
+        <v>5.3389918843509403E-2</v>
       </c>
       <c r="I73">
         <v>0.22891968521341799</v>
@@ -27826,7 +27826,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>32492.277343939502</v>
+        <v>3.2492277343939502E-2</v>
       </c>
       <c r="I74">
         <v>0.244401635256497</v>
@@ -27855,7 +27855,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>43455.426387562504</v>
+        <v>4.3455426387562501E-2</v>
       </c>
       <c r="I75">
         <v>0.234683278833311</v>
@@ -27884,7 +27884,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>101158.45574308801</v>
+        <v>0.101158455743088</v>
       </c>
       <c r="I76">
         <v>0.22907988680973301</v>
@@ -27913,7 +27913,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>62370.457381245105</v>
+        <v>6.2370457381245102E-2</v>
       </c>
       <c r="I77">
         <v>0.227502942560696</v>
@@ -27942,7 +27942,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>68214.089724415695</v>
+        <v>6.82140897244157E-2</v>
       </c>
       <c r="I78">
         <v>0.24441522033458199</v>
@@ -27971,7 +27971,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>100173.644975776</v>
+        <v>0.10017364497577599</v>
       </c>
       <c r="I79">
         <v>0.23239898924808</v>
@@ -28000,7 +28000,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>103180.98722938501</v>
+        <v>0.103180987229385</v>
       </c>
       <c r="I80">
         <v>0.23784552228685499</v>
@@ -28029,7 +28029,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="11">
-        <v>1778156.0053785702</v>
+        <v>1.7781560053785701</v>
       </c>
       <c r="I81" s="5">
         <v>0.45</v>
@@ -28058,7 +28058,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="11">
-        <v>814121.47497588</v>
+        <v>0.81412147497588006</v>
       </c>
       <c r="I82">
         <v>0.45</v>
@@ -28087,7 +28087,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>270516.29301622696</v>
+        <v>0.27051629301622698</v>
       </c>
       <c r="I83">
         <v>0.45</v>
@@ -28116,7 +28116,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>193768.99328089404</v>
+        <v>0.19376899328089403</v>
       </c>
       <c r="I84">
         <v>0.45</v>
@@ -28145,7 +28145,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>9178405.9531579614</v>
+        <v>9.1784059531579612</v>
       </c>
       <c r="I85">
         <v>0.45</v>
@@ -28174,7 +28174,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1590788.7632208299</v>
+        <v>1.59078876322083</v>
       </c>
       <c r="I86">
         <v>0.45</v>
@@ -28203,7 +28203,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>19815.856239869798</v>
+        <v>1.9815856239869797E-2</v>
       </c>
       <c r="I87">
         <v>0.45</v>
@@ -28232,7 +28232,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="13">
-        <v>1000</v>
+        <v>1E-3</v>
       </c>
       <c r="I88">
         <v>0.45</v>
@@ -28261,7 +28261,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>744716.111269071</v>
+        <v>0.744716111269071</v>
       </c>
       <c r="I89">
         <v>0.45</v>
@@ -28290,7 +28290,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="5">
-        <v>1819564.5181290398</v>
+        <v>1.8195645181290399</v>
       </c>
       <c r="I90">
         <v>0.45</v>
@@ -28319,7 +28319,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>7361187.2059999993</v>
+        <v>7.3611872059999994</v>
       </c>
       <c r="I91">
         <v>0.45</v>
@@ -28348,7 +28348,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>17074.7267008243</v>
+        <v>1.70747267008243E-2</v>
       </c>
       <c r="I92">
         <v>0.45</v>
@@ -28377,7 +28377,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>7730106.3526970297</v>
+        <v>7.7301063526970299</v>
       </c>
       <c r="I93">
         <v>0.45</v>
@@ -28406,7 +28406,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>11080.2131578809</v>
+        <v>1.10802131578809E-2</v>
       </c>
       <c r="I94">
         <v>0.45</v>
@@ -28435,7 +28435,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="11">
-        <v>359213.69886882399</v>
+        <v>0.35921369886882398</v>
       </c>
       <c r="I95" s="5">
         <v>0.55000000000000004</v>
@@ -28464,7 +28464,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="11">
-        <v>1127156.06018971</v>
+        <v>1.1271560601897099</v>
       </c>
       <c r="I96" s="5">
         <v>0.55000000000000004</v>
@@ -28493,7 +28493,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="11">
-        <v>299060.62929646706</v>
+        <v>0.29906062929646704</v>
       </c>
       <c r="I97" s="5">
         <v>0.55000000000000004</v>
@@ -28522,7 +28522,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="11">
-        <v>842349.23274403589</v>
+        <v>0.84234923274403595</v>
       </c>
       <c r="I98" s="5">
         <v>0.55000000000000004</v>
@@ -28551,7 +28551,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="11">
-        <v>117102.641384615</v>
+        <v>0.117102641384615</v>
       </c>
       <c r="I99" s="5">
         <v>0.55000000000000004</v>
@@ -28580,7 +28580,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>3492942.3814296499</v>
+        <v>3.4929423814296499</v>
       </c>
       <c r="I100" s="5">
         <v>0.55000000000000004</v>
@@ -28609,7 +28609,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>103949.2622538</v>
+        <v>0.1039492622538</v>
       </c>
       <c r="I101" s="5">
         <v>0.55000000000000004</v>
@@ -28638,7 +28638,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1815.5614588031799</v>
+        <v>1.81556145880318E-3</v>
       </c>
       <c r="I102" s="5">
         <v>0.55000000000000004</v>
@@ -28667,7 +28667,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="13">
-        <v>1000</v>
+        <v>1E-3</v>
       </c>
       <c r="I103" s="5">
         <v>0.55000000000000004</v>
@@ -28696,7 +28696,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>142601.20857240702</v>
+        <v>0.14260120857240702</v>
       </c>
       <c r="I104" s="5">
         <v>0.55000000000000004</v>
@@ -28725,7 +28725,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1671668.9919999999</v>
+        <v>1.6716689919999999</v>
       </c>
       <c r="I105" s="5">
         <v>0.55000000000000004</v>
@@ -28754,7 +28754,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>79982.636840186693</v>
+        <v>7.9982636840186694E-2</v>
       </c>
       <c r="I106" s="5">
         <v>0.55000000000000004</v>
@@ -28783,7 +28783,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>36686.543761592096</v>
+        <v>3.6686543761592097E-2</v>
       </c>
       <c r="I107" s="5">
         <v>0.55000000000000004</v>
@@ -28812,7 +28812,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>193309.10891543998</v>
+        <v>0.19330910891543998</v>
       </c>
       <c r="I108" s="5">
         <v>0.55000000000000004</v>
@@ -28841,7 +28841,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>884048.50662075053</v>
+        <v>0.88404850662075052</v>
       </c>
       <c r="I109" s="5">
         <v>0.25</v>
@@ -28870,7 +28870,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>1606171.2860810002</v>
+        <v>1.6061712860810002</v>
       </c>
       <c r="I110" s="5">
         <v>0.25</v>
@@ -28899,7 +28899,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1318396.3670409999</v>
+        <v>1.3183963670409999</v>
       </c>
       <c r="I111" s="5">
         <v>0.25</v>
@@ -28928,7 +28928,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>580542.8882922153</v>
+        <v>0.58054288829221534</v>
       </c>
       <c r="I112" s="5">
         <v>0.25</v>
@@ -28957,7 +28957,7 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>431147.73596576869</v>
+        <v>0.43114773596576866</v>
       </c>
       <c r="I113" s="5">
         <v>0.25</v>
@@ -28986,7 +28986,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>2476000</v>
+        <v>2.476</v>
       </c>
       <c r="I114">
         <v>0.2</v>
@@ -29015,7 +29015,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>2207000</v>
+        <v>2.2069999999999999</v>
       </c>
       <c r="I115">
         <v>0.2</v>
@@ -29044,7 +29044,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>1750000</v>
+        <v>1.75</v>
       </c>
       <c r="I116">
         <v>0.2</v>
@@ -29073,7 +29073,7 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>1097000</v>
+        <v>1.097</v>
       </c>
       <c r="I117">
         <v>0.2</v>
@@ -29102,7 +29102,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>442000</v>
+        <v>0.442</v>
       </c>
       <c r="I118">
         <v>0.2</v>
@@ -29131,7 +29131,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>294000</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="I119">
         <v>0.2</v>
@@ -29160,7 +29160,7 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>278000</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="I120">
         <v>0.2</v>
@@ -29189,7 +29189,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>308000</v>
+        <v>0.308</v>
       </c>
       <c r="I121">
         <v>0.2</v>
@@ -29218,7 +29218,7 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>368000</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="I122">
         <v>0.2</v>
@@ -30652,8 +30652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU116"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:R69"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32231,7 +32231,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2015.5</v>
+        <v>2015</v>
       </c>
       <c r="G23">
         <v>2.508</v>
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2016.8</v>
+        <v>2016</v>
       </c>
       <c r="G24">
         <v>2.508</v>
@@ -32343,7 +32343,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2018.1</v>
+        <v>2017</v>
       </c>
       <c r="G25">
         <v>2.508</v>
@@ -32399,7 +32399,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2019.4</v>
+        <v>2018</v>
       </c>
       <c r="G26">
         <v>2.508</v>
@@ -32455,7 +32455,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2020.7</v>
+        <v>2019</v>
       </c>
       <c r="G27">
         <v>2.508</v>
@@ -32511,7 +32511,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G28">
         <v>2.508</v>
@@ -32567,7 +32567,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2023.3</v>
+        <v>2021</v>
       </c>
       <c r="G29">
         <v>2.508</v>
@@ -32623,7 +32623,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2024.6</v>
+        <v>2022</v>
       </c>
       <c r="G30">
         <v>2.508</v>
@@ -37485,11 +37485,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -37652,55 +37657,2681 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1970</v>
+      </c>
+      <c r="F4">
+        <v>9.3935799999999995E-4</v>
+      </c>
+      <c r="G4">
+        <v>1.1288899999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.12178700000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.62798699999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.95479000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.99744500000000003</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.98695100000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.85151900000000003</v>
+      </c>
+      <c r="O4">
+        <v>0.32311400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1971</v>
+      </c>
+      <c r="F5">
+        <v>9.39368E-4</v>
+      </c>
+      <c r="G5">
+        <v>1.1289E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.12178799999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.62798799999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.95479000000000003</v>
+      </c>
+      <c r="K5">
+        <v>0.99744500000000003</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.98695100000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.85151900000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.32311400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1972</v>
+      </c>
+      <c r="F6">
+        <v>9.3955600000000003E-4</v>
+      </c>
+      <c r="G6">
+        <v>1.12911E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.121807</v>
+      </c>
+      <c r="I6">
+        <v>0.62802800000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.95479700000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.99744600000000005</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.98695100000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.85151900000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.32311400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1973</v>
+      </c>
+      <c r="F7">
+        <v>9.4141799999999996E-4</v>
+      </c>
+      <c r="G7">
+        <v>1.1313E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.122015</v>
+      </c>
+      <c r="I7">
+        <v>0.62847500000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.95488099999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.99745300000000003</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.98694999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.85151900000000003</v>
+      </c>
+      <c r="O7">
+        <v>0.32311400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1974</v>
+      </c>
+      <c r="F8">
+        <v>9.4592600000000004E-4</v>
+      </c>
+      <c r="G8">
+        <v>1.13653E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.122503</v>
+      </c>
+      <c r="I8">
+        <v>0.62951299999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.95507200000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.99746800000000002</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.98694899999999997</v>
+      </c>
+      <c r="N8">
+        <v>0.851518</v>
+      </c>
+      <c r="O8">
+        <v>0.32311400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1975</v>
+      </c>
+      <c r="F9">
+        <v>9.5615100000000003E-4</v>
+      </c>
+      <c r="G9">
+        <v>1.14836E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.123603</v>
+      </c>
+      <c r="I9">
+        <v>0.63182499999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.95549300000000004</v>
+      </c>
+      <c r="K9">
+        <v>0.997502</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.98694599999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.85151500000000002</v>
+      </c>
+      <c r="O9">
+        <v>0.32311299999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1976</v>
+      </c>
+      <c r="F10">
+        <v>9.5425399999999997E-4</v>
+      </c>
+      <c r="G10">
+        <v>1.14678E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.123517</v>
+      </c>
+      <c r="I10">
+        <v>0.63177799999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.95550999999999997</v>
+      </c>
+      <c r="K10">
+        <v>0.997506</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.98694599999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.85151500000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.32311299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1977</v>
+      </c>
+      <c r="F11">
+        <v>9.1157900000000004E-4</v>
+      </c>
+      <c r="G11">
+        <v>1.09634E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.11870600000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.62125399999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.95352499999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.99734199999999995</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.98695900000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.85152700000000003</v>
+      </c>
+      <c r="O11">
+        <v>0.32311699999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1978</v>
+      </c>
+      <c r="F12">
+        <v>1.00226E-3</v>
+      </c>
+      <c r="G12">
+        <v>1.19509E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.12728600000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.63804700000000003</v>
+      </c>
+      <c r="J12">
+        <v>0.95636200000000005</v>
+      </c>
+      <c r="K12">
+        <v>0.99755199999999999</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.98694400000000004</v>
+      </c>
+      <c r="N12">
+        <v>0.85151299999999996</v>
+      </c>
+      <c r="O12">
+        <v>0.32311200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1979</v>
+      </c>
+      <c r="F13">
+        <v>1.10443E-3</v>
+      </c>
+      <c r="G13">
+        <v>1.3023E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.13606799999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.65332999999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.958727</v>
+      </c>
+      <c r="K13">
+        <v>0.99771699999999996</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.98693299999999995</v>
+      </c>
+      <c r="N13">
+        <v>0.85150400000000004</v>
+      </c>
+      <c r="O13">
+        <v>0.32310800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1980</v>
+      </c>
+      <c r="F14">
+        <v>9.3140599999999997E-4</v>
+      </c>
+      <c r="G14">
+        <v>1.01519E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.10140399999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.55437099999999995</v>
+      </c>
+      <c r="J14">
+        <v>0.93335599999999996</v>
+      </c>
+      <c r="K14">
+        <v>0.99510699999999996</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.98719400000000002</v>
+      </c>
+      <c r="N14">
+        <v>0.85175000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.32320300000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1981</v>
+      </c>
+      <c r="F15">
+        <v>1.21907E-3</v>
+      </c>
+      <c r="G15">
+        <v>1.22635E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.112154</v>
+      </c>
+      <c r="I15">
+        <v>0.56291800000000003</v>
+      </c>
+      <c r="J15">
+        <v>0.930616</v>
+      </c>
+      <c r="K15">
+        <v>0.99438300000000002</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.98730899999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.85186300000000004</v>
+      </c>
+      <c r="O15">
+        <v>0.32324599999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1982</v>
+      </c>
+      <c r="F16">
+        <v>2.5257299999999999E-3</v>
+      </c>
+      <c r="G16">
+        <v>2.2605199999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.17444999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.65944800000000003</v>
+      </c>
+      <c r="J16">
+        <v>0.94801000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.99562099999999998</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.98724900000000004</v>
+      </c>
+      <c r="N16">
+        <v>0.85181200000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.32322699999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1983</v>
+      </c>
+      <c r="F17">
+        <v>3.9279900000000001E-3</v>
+      </c>
+      <c r="G17">
+        <v>3.2725799999999999E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.22504199999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.71441600000000005</v>
+      </c>
+      <c r="J17">
+        <v>0.956986</v>
+      </c>
+      <c r="K17">
+        <v>0.99632799999999999</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.987205</v>
+      </c>
+      <c r="N17">
+        <v>0.85177400000000003</v>
+      </c>
+      <c r="O17">
+        <v>0.32321299999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1984</v>
+      </c>
+      <c r="F18">
+        <v>4.5306599999999997E-3</v>
+      </c>
+      <c r="G18">
+        <v>3.5744699999999997E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.231992</v>
+      </c>
+      <c r="I18">
+        <v>0.71187999999999996</v>
+      </c>
+      <c r="J18">
+        <v>0.95423899999999995</v>
+      </c>
+      <c r="K18">
+        <v>0.99577400000000005</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.98730300000000004</v>
+      </c>
+      <c r="N18">
+        <v>0.85187100000000004</v>
+      </c>
+      <c r="O18">
+        <v>0.32324999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1985</v>
+      </c>
+      <c r="F19">
+        <v>3.0075499999999999E-3</v>
+      </c>
+      <c r="G19">
+        <v>2.29521E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.154694</v>
+      </c>
+      <c r="I19">
+        <v>0.588453</v>
+      </c>
+      <c r="J19">
+        <v>0.91958499999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.99112199999999995</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.98793200000000003</v>
+      </c>
+      <c r="N19">
+        <v>0.85248699999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.323488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1986</v>
+      </c>
+      <c r="F20">
+        <v>4.03887E-3</v>
+      </c>
+      <c r="G20">
+        <v>2.89717E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.18007000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.61861500000000003</v>
+      </c>
+      <c r="J20">
+        <v>0.92473099999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.99132299999999995</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.98797900000000005</v>
+      </c>
+      <c r="N20">
+        <v>0.85254200000000002</v>
+      </c>
+      <c r="O20">
+        <v>0.32351000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1987</v>
+      </c>
+      <c r="F21">
+        <v>3.54916E-3</v>
+      </c>
+      <c r="G21">
+        <v>2.4765100000000002E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.15335199999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.56448299999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.90470799999999996</v>
+      </c>
+      <c r="K21">
+        <v>0.98816700000000002</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.98846999999999996</v>
+      </c>
+      <c r="N21">
+        <v>0.85302900000000004</v>
+      </c>
+      <c r="O21">
+        <v>0.32369799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1988</v>
+      </c>
+      <c r="F22">
+        <v>3.5966800000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>2.4349699999999998E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.14722299999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.54507300000000003</v>
+      </c>
+      <c r="J22">
+        <v>0.89485300000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.98631999999999997</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.98879799999999995</v>
+      </c>
+      <c r="N22">
+        <v>0.85336100000000004</v>
+      </c>
+      <c r="O22">
+        <v>0.32382699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1989</v>
+      </c>
+      <c r="F23">
+        <v>2.7787300000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>1.8917199999999999E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.117766</v>
+      </c>
+      <c r="I23">
+        <v>0.481041</v>
+      </c>
+      <c r="J23">
+        <v>0.86800500000000003</v>
+      </c>
+      <c r="K23">
+        <v>0.98210200000000003</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.98942099999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.85397599999999996</v>
+      </c>
+      <c r="O23">
+        <v>0.32406499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1990</v>
+      </c>
+      <c r="F24">
+        <v>1.41763E-3</v>
+      </c>
+      <c r="G24">
+        <v>9.8350499999999997E-3</v>
+      </c>
+      <c r="H24">
+        <v>6.5002500000000005E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.32789499999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.77713299999999996</v>
+      </c>
+      <c r="K24">
+        <v>0.96628999999999998</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.99176200000000003</v>
+      </c>
+      <c r="N24">
+        <v>0.85628300000000002</v>
+      </c>
+      <c r="O24">
+        <v>0.32495600000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1991</v>
+      </c>
+      <c r="F25">
+        <v>1.0249899999999999E-3</v>
+      </c>
+      <c r="G25">
+        <v>7.0147300000000003E-3</v>
+      </c>
+      <c r="H25">
+        <v>4.6397800000000003E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.25147900000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.70250800000000002</v>
+      </c>
+      <c r="K25">
+        <v>0.94990699999999995</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.99443999999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.85894499999999996</v>
+      </c>
+      <c r="O25">
+        <v>0.325986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1992</v>
+      </c>
+      <c r="F26">
+        <v>1.12597E-3</v>
+      </c>
+      <c r="G26">
+        <v>7.5529600000000001E-3</v>
+      </c>
+      <c r="H26">
+        <v>4.8888300000000003E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.25821300000000003</v>
+      </c>
+      <c r="J26">
+        <v>0.70596000000000003</v>
+      </c>
+      <c r="K26">
+        <v>0.94987900000000003</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="N26">
+        <v>0.85912299999999997</v>
+      </c>
+      <c r="O26">
+        <v>0.32605699999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1993</v>
+      </c>
+      <c r="F27">
+        <v>1.5733399999999999E-3</v>
+      </c>
+      <c r="G27">
+        <v>1.01382E-2</v>
+      </c>
+      <c r="H27">
+        <v>6.2440700000000002E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.30282700000000001</v>
+      </c>
+      <c r="J27">
+        <v>0.74289799999999995</v>
+      </c>
+      <c r="K27">
+        <v>0.95677000000000001</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.99373999999999996</v>
+      </c>
+      <c r="N27">
+        <v>0.85830499999999998</v>
+      </c>
+      <c r="O27">
+        <v>0.32574399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1994</v>
+      </c>
+      <c r="F28">
+        <v>1.6724699999999999E-3</v>
+      </c>
+      <c r="G28">
+        <v>1.0647800000000001E-2</v>
+      </c>
+      <c r="H28">
+        <v>6.4698199999999997E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.30842700000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.74579399999999996</v>
+      </c>
+      <c r="K28">
+        <v>0.95698499999999997</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.993788</v>
+      </c>
+      <c r="N28">
+        <v>0.85836299999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.325768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1995</v>
+      </c>
+      <c r="F29">
+        <v>1.68465E-3</v>
+      </c>
+      <c r="G29">
+        <v>1.07311E-2</v>
+      </c>
+      <c r="H29">
+        <v>6.5213099999999996E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.31036799999999998</v>
+      </c>
+      <c r="J29">
+        <v>0.74762799999999996</v>
+      </c>
+      <c r="K29">
+        <v>0.95741299999999996</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.99370999999999998</v>
+      </c>
+      <c r="N29">
+        <v>0.85828599999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.32573800000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1996</v>
+      </c>
+      <c r="F30">
+        <v>1.70441E-3</v>
+      </c>
+      <c r="G30">
+        <v>1.0799400000000001E-2</v>
+      </c>
+      <c r="H30">
+        <v>6.5283499999999994E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.30949700000000002</v>
+      </c>
+      <c r="J30">
+        <v>0.74589399999999995</v>
+      </c>
+      <c r="K30">
+        <v>0.95683600000000002</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.99384700000000004</v>
+      </c>
+      <c r="N30">
+        <v>0.85842700000000005</v>
+      </c>
+      <c r="O30">
+        <v>0.325793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1997</v>
+      </c>
+      <c r="F31">
+        <v>1.8165499999999999E-3</v>
+      </c>
+      <c r="G31">
+        <v>1.1447799999999999E-2</v>
+      </c>
+      <c r="H31">
+        <v>6.8664500000000003E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.320135</v>
+      </c>
+      <c r="J31">
+        <v>0.75428799999999996</v>
+      </c>
+      <c r="K31">
+        <v>0.95851600000000003</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.99359299999999995</v>
+      </c>
+      <c r="N31">
+        <v>0.858178</v>
+      </c>
+      <c r="O31">
+        <v>0.32569700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1998</v>
+      </c>
+      <c r="F32">
+        <v>2.29007E-3</v>
+      </c>
+      <c r="G32">
+        <v>1.43736E-2</v>
+      </c>
+      <c r="H32">
+        <v>8.4837200000000001E-2</v>
+      </c>
+      <c r="I32">
+        <v>0.371554</v>
+      </c>
+      <c r="J32">
+        <v>0.79388700000000001</v>
+      </c>
+      <c r="K32">
+        <v>0.96679599999999999</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.99219800000000002</v>
+      </c>
+      <c r="N32">
+        <v>0.85678299999999996</v>
+      </c>
+      <c r="O32">
+        <v>0.325156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1999</v>
+      </c>
+      <c r="F33">
+        <v>2.29138E-3</v>
+      </c>
+      <c r="G33">
+        <v>1.4659200000000001E-2</v>
+      </c>
+      <c r="H33">
+        <v>8.7940699999999997E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.38533299999999998</v>
+      </c>
+      <c r="J33">
+        <v>0.80629099999999998</v>
+      </c>
+      <c r="K33">
+        <v>0.96977899999999995</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="N33">
+        <v>0.85617200000000004</v>
+      </c>
+      <c r="O33">
+        <v>0.32491799999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2000</v>
+      </c>
+      <c r="F34">
+        <v>2.5788299999999998E-3</v>
+      </c>
+      <c r="G34">
+        <v>1.66474E-2</v>
+      </c>
+      <c r="H34">
+        <v>9.9831699999999995E-2</v>
+      </c>
+      <c r="I34">
+        <v>0.42158499999999999</v>
+      </c>
+      <c r="J34">
+        <v>0.83031999999999995</v>
+      </c>
+      <c r="K34">
+        <v>0.97455700000000001</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.99077700000000002</v>
+      </c>
+      <c r="N34">
+        <v>0.85534600000000005</v>
+      </c>
+      <c r="O34">
+        <v>0.32459700000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2001</v>
+      </c>
+      <c r="F35">
+        <v>5.3256700000000002E-3</v>
+      </c>
+      <c r="G35">
+        <v>3.3067600000000003E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.179365</v>
+      </c>
+      <c r="I35">
+        <v>0.58376300000000003</v>
+      </c>
+      <c r="J35">
+        <v>0.90229300000000001</v>
+      </c>
+      <c r="K35">
+        <v>0.98649200000000004</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.98894899999999997</v>
+      </c>
+      <c r="N35">
+        <v>0.85353299999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.32389600000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2002</v>
+      </c>
+      <c r="F36">
+        <v>9.4576199999999999E-3</v>
+      </c>
+      <c r="G36">
+        <v>5.6975400000000002E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.276731</v>
+      </c>
+      <c r="I36">
+        <v>0.70887999999999995</v>
+      </c>
+      <c r="J36">
+        <v>0.94117600000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.99249299999999996</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.98801000000000005</v>
+      </c>
+      <c r="N36">
+        <v>0.85259799999999997</v>
+      </c>
+      <c r="O36">
+        <v>0.32353399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2003</v>
+      </c>
+      <c r="F37">
+        <v>1.32836E-2</v>
+      </c>
+      <c r="G37">
+        <v>8.01066E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.36053499999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.78595499999999996</v>
+      </c>
+      <c r="J37">
+        <v>0.96134299999999995</v>
+      </c>
+      <c r="K37">
+        <v>0.99560499999999996</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.98749799999999999</v>
+      </c>
+      <c r="N37">
+        <v>0.85208399999999995</v>
+      </c>
+      <c r="O37">
+        <v>0.32333400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2004</v>
+      </c>
+      <c r="F38">
+        <v>1.9754000000000001E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.11828</v>
+      </c>
+      <c r="H38">
+        <v>0.47202499999999997</v>
+      </c>
+      <c r="I38">
+        <v>0.85724599999999995</v>
+      </c>
+      <c r="J38">
+        <v>0.97704800000000003</v>
+      </c>
+      <c r="K38">
+        <v>0.99790999999999996</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0.98712900000000003</v>
+      </c>
+      <c r="N38">
+        <v>0.85171399999999997</v>
+      </c>
+      <c r="O38">
+        <v>0.32319100000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2005</v>
+      </c>
+      <c r="F39">
+        <v>1.49432E-2</v>
+      </c>
+      <c r="G39">
+        <v>9.8255300000000004E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.43928</v>
+      </c>
+      <c r="I39">
+        <v>0.85015200000000002</v>
+      </c>
+      <c r="J39">
+        <v>0.97744900000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.99816800000000006</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0.98705900000000002</v>
+      </c>
+      <c r="N39">
+        <v>0.85163999999999995</v>
+      </c>
+      <c r="O39">
+        <v>0.323162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2006</v>
+      </c>
+      <c r="F40">
+        <v>1.38916E-2</v>
+      </c>
+      <c r="G40">
+        <v>9.6748000000000001E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.449098</v>
+      </c>
+      <c r="I40">
+        <v>0.86209599999999997</v>
+      </c>
+      <c r="J40">
+        <v>0.98072400000000004</v>
+      </c>
+      <c r="K40">
+        <v>0.99870899999999996</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0.98696600000000001</v>
+      </c>
+      <c r="N40">
+        <v>0.85154700000000005</v>
+      </c>
+      <c r="O40">
+        <v>0.32312600000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2007</v>
+      </c>
+      <c r="F41">
+        <v>1.51054E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.109496</v>
+      </c>
+      <c r="H41">
+        <v>0.49670399999999998</v>
+      </c>
+      <c r="I41">
+        <v>0.88880300000000001</v>
+      </c>
+      <c r="J41">
+        <v>0.98588600000000004</v>
+      </c>
+      <c r="K41">
+        <v>0.99941100000000005</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0.98686200000000002</v>
+      </c>
+      <c r="N41">
+        <v>0.85144500000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.32308599999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2008</v>
+      </c>
+      <c r="F42">
+        <v>9.3466299999999999E-3</v>
+      </c>
+      <c r="G42">
+        <v>7.7741199999999996E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.42979899999999999</v>
+      </c>
+      <c r="I42">
+        <v>0.871672</v>
+      </c>
+      <c r="J42">
+        <v>0.98502500000000004</v>
+      </c>
+      <c r="K42">
+        <v>0.99948099999999995</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0.98683299999999996</v>
+      </c>
+      <c r="N42">
+        <v>0.851414</v>
+      </c>
+      <c r="O42">
+        <v>0.32307399999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2009</v>
+      </c>
+      <c r="F43">
+        <v>9.1401999999999994E-3</v>
+      </c>
+      <c r="G43">
+        <v>7.9305799999999996E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.44600099999999998</v>
+      </c>
+      <c r="I43">
+        <v>0.88356000000000001</v>
+      </c>
+      <c r="J43">
+        <v>0.98729299999999998</v>
+      </c>
+      <c r="K43">
+        <v>0.99977099999999997</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0.98679399999999995</v>
+      </c>
+      <c r="N43">
+        <v>0.85137600000000002</v>
+      </c>
+      <c r="O43">
+        <v>0.32306000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2010</v>
+      </c>
+      <c r="F44">
+        <v>7.4948100000000002E-3</v>
+      </c>
+      <c r="G44">
+        <v>6.9226899999999994E-2</v>
+      </c>
+      <c r="H44">
+        <v>0.423014</v>
+      </c>
+      <c r="I44">
+        <v>0.87931000000000004</v>
+      </c>
+      <c r="J44">
+        <v>0.98745799999999995</v>
+      </c>
+      <c r="K44">
+        <v>0.99985100000000005</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0.98677899999999996</v>
+      </c>
+      <c r="N44">
+        <v>0.85136100000000003</v>
+      </c>
+      <c r="O44">
+        <v>0.32305400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2011</v>
+      </c>
+      <c r="F45">
+        <v>4.5718099999999999E-3</v>
+      </c>
+      <c r="G45">
+        <v>4.6431E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.34059699999999998</v>
+      </c>
+      <c r="I45">
+        <v>0.84647899999999998</v>
+      </c>
+      <c r="J45">
+        <v>0.98439200000000004</v>
+      </c>
+      <c r="K45">
+        <v>0.99966299999999997</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0.98678699999999997</v>
+      </c>
+      <c r="N45">
+        <v>0.85136800000000001</v>
+      </c>
+      <c r="O45">
+        <v>0.32305699999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2012</v>
+      </c>
+      <c r="F46">
+        <v>2.0534500000000001E-3</v>
+      </c>
+      <c r="G46">
+        <v>2.3277900000000001E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.21637999999999999</v>
+      </c>
+      <c r="I46">
+        <v>0.76256199999999996</v>
+      </c>
+      <c r="J46">
+        <v>0.97506099999999996</v>
+      </c>
+      <c r="K46">
+        <v>0.99900599999999995</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0.98683200000000004</v>
+      </c>
+      <c r="N46">
+        <v>0.85140899999999997</v>
+      </c>
+      <c r="O46">
+        <v>0.32307200000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2013</v>
+      </c>
+      <c r="F47">
+        <v>1.2989500000000001E-3</v>
+      </c>
+      <c r="G47">
+        <v>1.5770099999999999E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.164881</v>
+      </c>
+      <c r="I47">
+        <v>0.70931299999999997</v>
+      </c>
+      <c r="J47">
+        <v>0.96905300000000005</v>
+      </c>
+      <c r="K47">
+        <v>0.99864699999999995</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0.98685</v>
+      </c>
+      <c r="N47">
+        <v>0.85142499999999999</v>
+      </c>
+      <c r="O47">
+        <v>0.32307799999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2014</v>
+      </c>
+      <c r="F48">
+        <v>6.7210900000000005E-4</v>
+      </c>
+      <c r="G48">
+        <v>8.6767300000000006E-3</v>
+      </c>
+      <c r="H48">
+        <v>0.102273</v>
+      </c>
+      <c r="I48">
+        <v>0.59770299999999998</v>
+      </c>
+      <c r="J48">
+        <v>0.95210700000000004</v>
+      </c>
+      <c r="K48">
+        <v>0.99746400000000002</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0.98692899999999995</v>
+      </c>
+      <c r="N48">
+        <v>0.85149799999999998</v>
+      </c>
+      <c r="O48">
+        <v>0.323106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>2015</v>
+      </c>
+      <c r="F49">
+        <v>7.4586699999999999E-4</v>
+      </c>
+      <c r="G49">
+        <v>9.4676299999999994E-3</v>
+      </c>
+      <c r="H49">
+        <v>0.10906299999999999</v>
+      </c>
+      <c r="I49">
+        <v>0.61104800000000004</v>
+      </c>
+      <c r="J49">
+        <v>0.95392900000000003</v>
+      </c>
+      <c r="K49">
+        <v>0.99755400000000005</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0.986927</v>
+      </c>
+      <c r="N49">
+        <v>0.85149600000000003</v>
+      </c>
+      <c r="O49">
+        <v>0.32310499999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2016</v>
+      </c>
+      <c r="F50">
+        <v>1.1148E-3</v>
+      </c>
+      <c r="G50">
+        <v>1.37149E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.147702</v>
+      </c>
+      <c r="I50">
+        <v>0.68410099999999996</v>
+      </c>
+      <c r="J50">
+        <v>0.96552099999999996</v>
+      </c>
+      <c r="K50">
+        <v>0.99839299999999997</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0.98686799999999997</v>
+      </c>
+      <c r="N50">
+        <v>0.851441</v>
+      </c>
+      <c r="O50">
+        <v>0.32308500000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>2017</v>
+      </c>
+      <c r="F51">
+        <v>1.5423500000000001E-3</v>
+      </c>
+      <c r="G51">
+        <v>1.8353999999999999E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.184585</v>
+      </c>
+      <c r="I51">
+        <v>0.73332200000000003</v>
+      </c>
+      <c r="J51">
+        <v>0.97207399999999999</v>
+      </c>
+      <c r="K51">
+        <v>0.99885000000000002</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0.98683699999999996</v>
+      </c>
+      <c r="N51">
+        <v>0.85141299999999998</v>
+      </c>
+      <c r="O51">
+        <v>0.32307399999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2018</v>
+      </c>
+      <c r="F52">
+        <v>2.47437E-3</v>
+      </c>
+      <c r="G52">
+        <v>2.82945E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.25481700000000002</v>
+      </c>
+      <c r="I52">
+        <v>0.80137499999999995</v>
+      </c>
+      <c r="J52">
+        <v>0.98053699999999999</v>
+      </c>
+      <c r="K52">
+        <v>0.99948099999999995</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0.98678900000000003</v>
+      </c>
+      <c r="N52">
+        <v>0.85136900000000004</v>
+      </c>
+      <c r="O52">
+        <v>0.32305699999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2019</v>
+      </c>
+      <c r="F53">
+        <v>3.5786500000000001E-3</v>
+      </c>
+      <c r="G53">
+        <v>3.96619E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.32211499999999998</v>
+      </c>
+      <c r="I53">
+        <v>0.84618300000000002</v>
+      </c>
+      <c r="J53">
+        <v>0.98563400000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.99987099999999995</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0.98675900000000005</v>
+      </c>
+      <c r="N53">
+        <v>0.85133999999999999</v>
+      </c>
+      <c r="O53">
+        <v>0.323046</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>2020</v>
+      </c>
+      <c r="F54">
+        <v>6.18784E-3</v>
+      </c>
+      <c r="G54">
+        <v>6.5159300000000003E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.43849700000000003</v>
+      </c>
+      <c r="I54">
+        <v>0.89831499999999997</v>
+      </c>
+      <c r="J54">
+        <v>0.99116099999999996</v>
+      </c>
+      <c r="K54">
+        <v>1.0003</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0.98672300000000002</v>
+      </c>
+      <c r="N54">
+        <v>0.85130700000000004</v>
+      </c>
+      <c r="O54">
+        <v>0.32303300000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>2021</v>
+      </c>
+      <c r="F55">
+        <v>6.3380099999999998E-3</v>
+      </c>
+      <c r="G55">
+        <v>6.6126500000000005E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.44032399999999999</v>
+      </c>
+      <c r="I55">
+        <v>0.89822800000000003</v>
+      </c>
+      <c r="J55">
+        <v>0.99106899999999998</v>
+      </c>
+      <c r="K55">
+        <v>1.0002899999999999</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0.98672499999999996</v>
+      </c>
+      <c r="N55">
+        <v>0.85130899999999998</v>
+      </c>
+      <c r="O55">
+        <v>0.32303399999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>2022</v>
+      </c>
+      <c r="F56">
+        <v>6.4119900000000002E-3</v>
+      </c>
+      <c r="G56">
+        <v>6.6833199999999995E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.44306200000000001</v>
+      </c>
+      <c r="I56">
+        <v>0.89922199999999997</v>
+      </c>
+      <c r="J56">
+        <v>0.991174</v>
+      </c>
+      <c r="K56">
+        <v>1.0003</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0.98672400000000005</v>
+      </c>
+      <c r="N56">
+        <v>0.85130899999999998</v>
+      </c>
+      <c r="O56">
+        <v>0.32303399999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="J57">
+        <v>0.99967899999999998</v>
+      </c>
+      <c r="K57">
+        <v>0.99821199999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.99034800000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.94983600000000001</v>
+      </c>
+      <c r="N57">
+        <v>0.77761499999999995</v>
+      </c>
+      <c r="O57">
+        <v>0.39240900000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.13225799999999999</v>
+      </c>
+      <c r="G58">
+        <v>0.223054</v>
+      </c>
+      <c r="H58">
+        <v>0.35158299999999998</v>
+      </c>
+      <c r="I58">
+        <v>0.50722500000000004</v>
+      </c>
+      <c r="J58">
+        <v>0.66368099999999997</v>
+      </c>
+      <c r="K58">
+        <v>0.79412099999999997</v>
+      </c>
+      <c r="L58">
+        <v>0.88695000000000002</v>
+      </c>
+      <c r="M58">
+        <v>0.94582699999999997</v>
+      </c>
+      <c r="N58">
+        <v>0.98048599999999997</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>5.4660799999999999E-3</v>
+      </c>
+      <c r="G59">
+        <v>2.1802200000000001E-2</v>
+      </c>
+      <c r="H59">
+        <v>8.2893900000000006E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.26825500000000002</v>
+      </c>
+      <c r="J59">
+        <v>0.59801300000000002</v>
+      </c>
+      <c r="K59">
+        <v>0.85814699999999999</v>
+      </c>
+      <c r="L59">
+        <v>0.96126100000000003</v>
+      </c>
+      <c r="M59">
+        <v>0.99061299999999997</v>
+      </c>
+      <c r="N59">
+        <v>0.99812900000000004</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>173</v>
       </c>
-      <c r="B4">
+      <c r="B60">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0.99954699999999996</v>
+      </c>
+      <c r="H60">
+        <v>0.99796099999999999</v>
+      </c>
+      <c r="I60">
+        <v>0.99243400000000004</v>
+      </c>
+      <c r="J60">
+        <v>0.97351500000000002</v>
+      </c>
+      <c r="K60">
+        <v>0.91247800000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.74792899999999995</v>
+      </c>
+      <c r="M60">
+        <v>0.45806799999999998</v>
+      </c>
+      <c r="N60">
+        <v>0.194103</v>
+      </c>
+      <c r="O60">
+        <v>6.4227999999999993E-2</v>
       </c>
     </row>
   </sheetData>
@@ -37710,9 +40341,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -37834,34 +40467,34 @@
         <v>1970</v>
       </c>
       <c r="E2">
-        <v>1254630</v>
+        <v>1.24481</v>
       </c>
       <c r="F2">
-        <v>312498</v>
+        <v>0.31005100000000002</v>
       </c>
       <c r="G2">
-        <v>193369</v>
+        <v>0.191854</v>
       </c>
       <c r="H2">
-        <v>133566</v>
+        <v>0.13252</v>
       </c>
       <c r="I2">
-        <v>95068.6</v>
+        <v>9.4324099999999994E-2</v>
       </c>
       <c r="J2">
-        <v>70428.5</v>
+        <v>6.9876999999999995E-2</v>
       </c>
       <c r="K2">
-        <v>52174.7</v>
+        <v>5.1766199999999998E-2</v>
       </c>
       <c r="L2">
-        <v>39040.5</v>
+        <v>3.8734699999999997E-2</v>
       </c>
       <c r="M2">
-        <v>29506.1</v>
+        <v>2.9275099999999998E-2</v>
       </c>
       <c r="N2">
-        <v>87704.3</v>
+        <v>8.7017499999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -37878,34 +40511,34 @@
         <v>1971</v>
       </c>
       <c r="E3">
-        <v>3177940</v>
+        <v>3.2480699999999998</v>
       </c>
       <c r="F3">
-        <v>312487</v>
+        <v>0.31003999999999998</v>
       </c>
       <c r="G3">
-        <v>156676</v>
+        <v>0.155447</v>
       </c>
       <c r="H3">
-        <v>119122</v>
+        <v>0.118163</v>
       </c>
       <c r="I3">
-        <v>90132.800000000003</v>
+        <v>8.9357000000000006E-2</v>
       </c>
       <c r="J3">
-        <v>65268.000000000007</v>
+        <v>6.4721899999999999E-2</v>
       </c>
       <c r="K3">
-        <v>50238</v>
+        <v>4.98223E-2</v>
       </c>
       <c r="L3">
-        <v>37213.1</v>
+        <v>3.69057E-2</v>
       </c>
       <c r="M3">
-        <v>28138.3</v>
+        <v>2.79067E-2</v>
       </c>
       <c r="N3">
-        <v>86350.6</v>
+        <v>8.5724099999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -37922,34 +40555,34 @@
         <v>1972</v>
       </c>
       <c r="E4">
-        <v>3637960</v>
+        <v>3.6874899999999999</v>
       </c>
       <c r="F4">
-        <v>791517</v>
+        <v>0.80898199999999998</v>
       </c>
       <c r="G4">
-        <v>156666</v>
+        <v>0.15543599999999999</v>
       </c>
       <c r="H4">
-        <v>96486.6</v>
+        <v>9.5705999999999999E-2</v>
       </c>
       <c r="I4">
-        <v>80247.399999999994</v>
+        <v>7.9532199999999997E-2</v>
       </c>
       <c r="J4">
-        <v>61714.7</v>
+        <v>6.1145600000000001E-2</v>
       </c>
       <c r="K4">
-        <v>46427.1</v>
+        <v>4.6014600000000003E-2</v>
       </c>
       <c r="L4">
-        <v>35731.600000000013</v>
+        <v>3.5417900000000002E-2</v>
       </c>
       <c r="M4">
-        <v>26747.1</v>
+        <v>2.6513599999999998E-2</v>
       </c>
       <c r="N4">
-        <v>84238.7</v>
+        <v>8.3658499999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -37966,34 +40599,34 @@
         <v>1973</v>
       </c>
       <c r="E5">
-        <v>10545500</v>
+        <v>10.8675</v>
       </c>
       <c r="F5">
-        <v>905968</v>
+        <v>0.91829899999999998</v>
       </c>
       <c r="G5">
-        <v>396187</v>
+        <v>0.404893</v>
       </c>
       <c r="H5">
-        <v>94827.5</v>
+        <v>9.3972799999999995E-2</v>
       </c>
       <c r="I5">
-        <v>59372.6</v>
+        <v>5.8645299999999997E-2</v>
       </c>
       <c r="J5">
-        <v>47759.4</v>
+        <v>4.7184700000000003E-2</v>
       </c>
       <c r="K5">
-        <v>37902.400000000001</v>
+        <v>3.7450999999999998E-2</v>
       </c>
       <c r="L5">
-        <v>28497.8</v>
+        <v>2.8169699999999999E-2</v>
       </c>
       <c r="M5">
-        <v>22204.6</v>
+        <v>2.1954999999999999E-2</v>
       </c>
       <c r="N5">
-        <v>76240.800000000003</v>
+        <v>7.5892500000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -38010,34 +40643,34 @@
         <v>1974</v>
       </c>
       <c r="E6">
-        <v>2189200</v>
+        <v>2.1924399999999999</v>
       </c>
       <c r="F6">
-        <v>2625980</v>
+        <v>2.7061600000000001</v>
       </c>
       <c r="G6">
-        <v>453112</v>
+        <v>0.459227</v>
       </c>
       <c r="H6">
-        <v>237767</v>
+        <v>0.242619</v>
       </c>
       <c r="I6">
-        <v>55806</v>
+        <v>5.5009200000000001E-2</v>
       </c>
       <c r="J6">
-        <v>32982.199999999997</v>
+        <v>3.2461200000000003E-2</v>
       </c>
       <c r="K6">
-        <v>27288.3</v>
+        <v>2.6880399999999999E-2</v>
       </c>
       <c r="L6">
-        <v>21639.9</v>
+        <v>2.13209E-2</v>
       </c>
       <c r="M6">
-        <v>16486.900000000001</v>
+        <v>1.6254000000000001E-2</v>
       </c>
       <c r="N6">
-        <v>65524.7</v>
+        <v>6.5415399999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -38054,34 +40687,34 @@
         <v>1975</v>
       </c>
       <c r="E7">
-        <v>2209570</v>
+        <v>2.2379099999999998</v>
       </c>
       <c r="F7">
-        <v>545100</v>
+        <v>0.545906</v>
       </c>
       <c r="G7">
-        <v>1312110</v>
+        <v>1.35206</v>
       </c>
       <c r="H7">
-        <v>269181</v>
+        <v>0.272455</v>
       </c>
       <c r="I7">
-        <v>132750</v>
+        <v>0.13500499999999999</v>
       </c>
       <c r="J7">
-        <v>28591.1</v>
+        <v>2.8205600000000001E-2</v>
       </c>
       <c r="K7">
-        <v>17314.3</v>
+        <v>1.7073100000000001E-2</v>
       </c>
       <c r="L7">
-        <v>14311</v>
+        <v>1.41256E-2</v>
       </c>
       <c r="M7">
-        <v>11511.8</v>
+        <v>1.1367499999999999E-2</v>
       </c>
       <c r="N7">
-        <v>52742.3</v>
+        <v>5.2977000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -38098,34 +40731,34 @@
         <v>1976</v>
       </c>
       <c r="E8">
-        <v>8660680</v>
+        <v>8.9760399999999994</v>
       </c>
       <c r="F8">
-        <v>550234</v>
+        <v>0.55729200000000001</v>
       </c>
       <c r="G8">
-        <v>272731</v>
+        <v>0.27313199999999999</v>
       </c>
       <c r="H8">
-        <v>790700</v>
+        <v>0.81448299999999996</v>
       </c>
       <c r="I8">
-        <v>162093</v>
+        <v>0.164075</v>
       </c>
       <c r="J8">
-        <v>76514.299999999988</v>
+        <v>7.8092900000000007E-2</v>
       </c>
       <c r="K8">
-        <v>16982.7</v>
+        <v>1.6827100000000001E-2</v>
       </c>
       <c r="L8">
-        <v>10278</v>
+        <v>1.0180099999999999E-2</v>
       </c>
       <c r="M8">
-        <v>8604.07</v>
+        <v>8.53136E-3</v>
       </c>
       <c r="N8">
-        <v>43732.7</v>
+        <v>4.4097200000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -38142,34 +40775,34 @@
         <v>1977</v>
       </c>
       <c r="E9">
-        <v>11709500</v>
+        <v>12.2079</v>
       </c>
       <c r="F9">
-        <v>2156550</v>
+        <v>2.2351000000000001</v>
       </c>
       <c r="G9">
-        <v>275060</v>
+        <v>0.27860299999999999</v>
       </c>
       <c r="H9">
-        <v>162840</v>
+        <v>0.163108</v>
       </c>
       <c r="I9">
-        <v>454214</v>
+        <v>0.46907100000000002</v>
       </c>
       <c r="J9">
-        <v>86966.5</v>
+        <v>8.8709700000000002E-2</v>
       </c>
       <c r="K9">
-        <v>42168.7</v>
+        <v>4.3417400000000002E-2</v>
       </c>
       <c r="L9">
-        <v>9351.76</v>
+        <v>9.34866E-3</v>
       </c>
       <c r="M9">
-        <v>5737.59</v>
+        <v>5.7341099999999997E-3</v>
       </c>
       <c r="N9">
-        <v>34557.800000000003</v>
+        <v>3.51133E-2</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -38186,34 +40819,34 @@
         <v>1978</v>
       </c>
       <c r="E10">
-        <v>14321100</v>
+        <v>14.5381</v>
       </c>
       <c r="F10">
-        <v>2915580</v>
+        <v>3.03972</v>
       </c>
       <c r="G10">
-        <v>1077460</v>
+        <v>1.1168199999999999</v>
       </c>
       <c r="H10">
-        <v>163247</v>
+        <v>0.16545000000000001</v>
       </c>
       <c r="I10">
-        <v>90350.200000000012</v>
+        <v>9.085E-2</v>
       </c>
       <c r="J10">
-        <v>230173</v>
+        <v>0.239955</v>
       </c>
       <c r="K10">
-        <v>45124.6</v>
+        <v>4.6520300000000001E-2</v>
       </c>
       <c r="L10">
-        <v>21857.3</v>
+        <v>2.27476E-2</v>
       </c>
       <c r="M10">
-        <v>4917.6499999999996</v>
+        <v>4.9696499999999999E-3</v>
       </c>
       <c r="N10">
-        <v>26030.9</v>
+        <v>2.6718499999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -38230,34 +40863,34 @@
         <v>1979</v>
       </c>
       <c r="E11">
-        <v>25424800</v>
+        <v>26.006599999999999</v>
       </c>
       <c r="F11">
-        <v>3565830</v>
+        <v>3.61992</v>
       </c>
       <c r="G11">
-        <v>1456570</v>
+        <v>1.5188200000000001</v>
       </c>
       <c r="H11">
-        <v>639382</v>
+        <v>0.66342000000000001</v>
       </c>
       <c r="I11">
-        <v>91395.599999999991</v>
+        <v>9.3129000000000003E-2</v>
       </c>
       <c r="J11">
-        <v>46817.8</v>
+        <v>4.7579999999999997E-2</v>
       </c>
       <c r="K11">
-        <v>122384</v>
+        <v>0.129081</v>
       </c>
       <c r="L11">
-        <v>23971.5</v>
+        <v>2.5005400000000001E-2</v>
       </c>
       <c r="M11">
-        <v>11776.3</v>
+        <v>1.24019E-2</v>
       </c>
       <c r="N11">
-        <v>20145</v>
+        <v>2.08822E-2</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -38274,34 +40907,34 @@
         <v>1980</v>
       </c>
       <c r="E12">
-        <v>12958600</v>
+        <v>13.164199999999999</v>
       </c>
       <c r="F12">
-        <v>6330850</v>
+        <v>6.4758199999999997</v>
       </c>
       <c r="G12">
-        <v>1782500</v>
+        <v>1.8097700000000001</v>
       </c>
       <c r="H12">
-        <v>870346</v>
+        <v>0.90843399999999996</v>
       </c>
       <c r="I12">
-        <v>373043</v>
+        <v>0.38929000000000002</v>
       </c>
       <c r="J12">
-        <v>50654</v>
+        <v>5.2178500000000003E-2</v>
       </c>
       <c r="K12">
-        <v>26720.5</v>
+        <v>2.7477399999999999E-2</v>
       </c>
       <c r="L12">
-        <v>69802.600000000006</v>
+        <v>7.4501800000000007E-2</v>
       </c>
       <c r="M12">
-        <v>13854.5</v>
+        <v>1.4625000000000001E-2</v>
       </c>
       <c r="N12">
-        <v>20871</v>
+        <v>2.1992999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -38318,34 +40951,34 @@
         <v>1981</v>
       </c>
       <c r="E13">
-        <v>7231480</v>
+        <v>7.36334</v>
       </c>
       <c r="F13">
-        <v>3227080</v>
+        <v>3.2783000000000002</v>
       </c>
       <c r="G13">
-        <v>3169040</v>
+        <v>3.2418499999999999</v>
       </c>
       <c r="H13">
-        <v>1081270</v>
+        <v>1.09846</v>
       </c>
       <c r="I13">
-        <v>538889</v>
+        <v>0.56467299999999998</v>
       </c>
       <c r="J13">
-        <v>220351</v>
+        <v>0.23200100000000001</v>
       </c>
       <c r="K13">
-        <v>30742.9</v>
+        <v>3.1987300000000003E-2</v>
       </c>
       <c r="L13">
-        <v>16200.1</v>
+        <v>1.6829E-2</v>
       </c>
       <c r="M13">
-        <v>42849</v>
+        <v>4.62008E-2</v>
       </c>
       <c r="N13">
-        <v>23377.5</v>
+        <v>2.4874799999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -38362,34 +40995,34 @@
         <v>1982</v>
       </c>
       <c r="E14">
-        <v>7229040</v>
+        <v>7.3453900000000001</v>
       </c>
       <c r="F14">
-        <v>1800850</v>
+        <v>1.8337000000000001</v>
       </c>
       <c r="G14">
-        <v>1615610</v>
+        <v>1.64133</v>
       </c>
       <c r="H14">
-        <v>1928000</v>
+        <v>1.97298</v>
       </c>
       <c r="I14">
-        <v>685509</v>
+        <v>0.69810099999999997</v>
       </c>
       <c r="J14">
-        <v>332246</v>
+        <v>0.35021200000000002</v>
       </c>
       <c r="K14">
-        <v>139949</v>
+        <v>0.14835400000000001</v>
       </c>
       <c r="L14">
-        <v>19507.099999999999</v>
+        <v>2.0437299999999999E-2</v>
       </c>
       <c r="M14">
-        <v>10401.9</v>
+        <v>1.0880799999999999E-2</v>
       </c>
       <c r="N14">
-        <v>44914.9</v>
+        <v>4.8526E-2</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -38406,34 +41039,34 @@
         <v>1983</v>
       </c>
       <c r="E15">
-        <v>4967740</v>
+        <v>5.0548299999999999</v>
       </c>
       <c r="F15">
-        <v>1800020</v>
+        <v>1.829</v>
       </c>
       <c r="G15">
-        <v>900767</v>
+        <v>0.91722499999999996</v>
       </c>
       <c r="H15">
-        <v>978665</v>
+        <v>0.99440899999999999</v>
       </c>
       <c r="I15">
-        <v>1227270</v>
+        <v>1.2582599999999999</v>
       </c>
       <c r="J15">
-        <v>433172</v>
+        <v>0.44302000000000002</v>
       </c>
       <c r="K15">
-        <v>217138</v>
+        <v>0.229988</v>
       </c>
       <c r="L15">
-        <v>91407.8</v>
+        <v>9.7373799999999996E-2</v>
       </c>
       <c r="M15">
-        <v>12888.7</v>
+        <v>1.35701E-2</v>
       </c>
       <c r="N15">
-        <v>39222.9</v>
+        <v>4.2334999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -38450,34 +41083,34 @@
         <v>1984</v>
       </c>
       <c r="E16">
-        <v>5933450</v>
+        <v>6.0701200000000002</v>
       </c>
       <c r="F16">
-        <v>1236600</v>
+        <v>1.2582899999999999</v>
       </c>
       <c r="G16">
-        <v>898390</v>
+        <v>0.91288000000000002</v>
       </c>
       <c r="H16">
-        <v>538762</v>
+        <v>0.54869100000000004</v>
       </c>
       <c r="I16">
-        <v>605766</v>
+        <v>0.61695100000000003</v>
       </c>
       <c r="J16">
-        <v>752863</v>
+        <v>0.77562699999999996</v>
       </c>
       <c r="K16">
-        <v>274789</v>
+        <v>0.28255999999999998</v>
       </c>
       <c r="L16">
-        <v>137658</v>
+        <v>0.14660699999999999</v>
       </c>
       <c r="M16">
-        <v>58642.100000000013</v>
+        <v>6.2815700000000002E-2</v>
       </c>
       <c r="N16">
-        <v>36321.300000000003</v>
+        <v>3.9199699999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -38494,34 +41127,34 @@
         <v>1985</v>
       </c>
       <c r="E17">
-        <v>14760200</v>
+        <v>14.8666</v>
       </c>
       <c r="F17">
-        <v>1476490</v>
+        <v>1.5105200000000001</v>
       </c>
       <c r="G17">
-        <v>615717</v>
+        <v>0.62654399999999999</v>
       </c>
       <c r="H17">
-        <v>530079</v>
+        <v>0.53877299999999995</v>
       </c>
       <c r="I17">
-        <v>320832</v>
+        <v>0.32778600000000002</v>
       </c>
       <c r="J17">
-        <v>352629</v>
+        <v>0.36147499999999999</v>
       </c>
       <c r="K17">
-        <v>451950</v>
+        <v>0.469001</v>
       </c>
       <c r="L17">
-        <v>164798</v>
+        <v>0.17071</v>
       </c>
       <c r="M17">
-        <v>83598</v>
+        <v>8.9694800000000005E-2</v>
       </c>
       <c r="N17">
-        <v>62198.2</v>
+        <v>6.7364800000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -38538,34 +41171,34 @@
         <v>1986</v>
       </c>
       <c r="E18">
-        <v>4315400</v>
+        <v>4.2044100000000002</v>
       </c>
       <c r="F18">
-        <v>3673460</v>
+        <v>3.7000099999999998</v>
       </c>
       <c r="G18">
-        <v>736082</v>
+        <v>0.75312400000000002</v>
       </c>
       <c r="H18">
-        <v>365729</v>
+        <v>0.37237999999999999</v>
       </c>
       <c r="I18">
-        <v>312949</v>
+        <v>0.319249</v>
       </c>
       <c r="J18">
-        <v>178215</v>
+        <v>0.18360099999999999</v>
       </c>
       <c r="K18">
-        <v>199827</v>
+        <v>0.206842</v>
       </c>
       <c r="L18">
-        <v>255463</v>
+        <v>0.26774999999999999</v>
       </c>
       <c r="M18">
-        <v>94376.1</v>
+        <v>9.8746600000000004E-2</v>
       </c>
       <c r="N18">
-        <v>92400.7</v>
+        <v>0.10062</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -38582,34 +41215,34 @@
         <v>1987</v>
       </c>
       <c r="E19">
-        <v>1789470</v>
+        <v>1.86863</v>
       </c>
       <c r="F19">
-        <v>1074480</v>
+        <v>1.04684</v>
       </c>
       <c r="G19">
-        <v>1837810</v>
+        <v>1.8511200000000001</v>
       </c>
       <c r="H19">
-        <v>448285</v>
+        <v>0.45870100000000003</v>
       </c>
       <c r="I19">
-        <v>238984</v>
+        <v>0.24360000000000001</v>
       </c>
       <c r="J19">
-        <v>204795</v>
+        <v>0.20948900000000001</v>
       </c>
       <c r="K19">
-        <v>120618</v>
+        <v>0.124662</v>
       </c>
       <c r="L19">
-        <v>135131</v>
+        <v>0.14033599999999999</v>
       </c>
       <c r="M19">
-        <v>174670</v>
+        <v>0.18367900000000001</v>
       </c>
       <c r="N19">
-        <v>132915</v>
+        <v>0.14242099999999999</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -38626,34 +41259,34 @@
         <v>1988</v>
       </c>
       <c r="E20">
-        <v>4998250</v>
+        <v>4.8132000000000001</v>
       </c>
       <c r="F20">
-        <v>445609</v>
+        <v>0.46532099999999998</v>
       </c>
       <c r="G20">
-        <v>538064</v>
+        <v>0.52422599999999997</v>
       </c>
       <c r="H20">
-        <v>1125900</v>
+        <v>1.1340699999999999</v>
       </c>
       <c r="I20">
-        <v>298314</v>
+        <v>0.30541499999999999</v>
       </c>
       <c r="J20">
-        <v>160107</v>
+        <v>0.16347600000000001</v>
       </c>
       <c r="K20">
-        <v>141973</v>
+        <v>0.14552999999999999</v>
       </c>
       <c r="L20">
-        <v>83547.5</v>
+        <v>8.6534700000000006E-2</v>
       </c>
       <c r="M20">
-        <v>94609.799999999988</v>
+        <v>9.8467299999999994E-2</v>
       </c>
       <c r="N20">
-        <v>221732</v>
+        <v>0.23567399999999999</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -38670,34 +41303,34 @@
         <v>1989</v>
       </c>
       <c r="E21">
-        <v>11468500</v>
+        <v>11.413600000000001</v>
       </c>
       <c r="F21">
-        <v>1244670</v>
+        <v>1.19859</v>
       </c>
       <c r="G21">
-        <v>223182</v>
+        <v>0.23305100000000001</v>
       </c>
       <c r="H21">
-        <v>330024</v>
+        <v>0.32150699999999999</v>
       </c>
       <c r="I21">
-        <v>752362</v>
+        <v>0.75794399999999995</v>
       </c>
       <c r="J21">
-        <v>200935</v>
+        <v>0.20593600000000001</v>
       </c>
       <c r="K21">
-        <v>111587</v>
+        <v>0.114094</v>
       </c>
       <c r="L21">
-        <v>98860.2</v>
+        <v>0.10148500000000001</v>
       </c>
       <c r="M21">
-        <v>58799.3</v>
+        <v>6.0992999999999999E-2</v>
       </c>
       <c r="N21">
-        <v>230158</v>
+        <v>0.24360499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -38714,34 +41347,34 @@
         <v>1990</v>
       </c>
       <c r="E22">
-        <v>8451930</v>
+        <v>8.5938099999999995</v>
       </c>
       <c r="F22">
-        <v>2855910</v>
+        <v>2.8422200000000002</v>
       </c>
       <c r="G22">
-        <v>623381</v>
+        <v>0.60028599999999999</v>
       </c>
       <c r="H22">
-        <v>136841</v>
+        <v>0.142873</v>
       </c>
       <c r="I22">
-        <v>219490</v>
+        <v>0.21380099999999999</v>
       </c>
       <c r="J22">
-        <v>499707</v>
+        <v>0.50375499999999995</v>
       </c>
       <c r="K22">
-        <v>137604</v>
+        <v>0.14118</v>
       </c>
       <c r="L22">
-        <v>76303</v>
+        <v>7.8107599999999999E-2</v>
       </c>
       <c r="M22">
-        <v>68333.599999999991</v>
+        <v>7.0232500000000003E-2</v>
       </c>
       <c r="N22">
-        <v>208951</v>
+        <v>0.22076899999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -38758,34 +41391,34 @@
         <v>1991</v>
       </c>
       <c r="E23">
-        <v>3250630</v>
+        <v>3.3804500000000002</v>
       </c>
       <c r="F23">
-        <v>2104890</v>
+        <v>2.1402299999999999</v>
       </c>
       <c r="G23">
-        <v>1431160</v>
+        <v>1.4242999999999999</v>
       </c>
       <c r="H23">
-        <v>383439</v>
+        <v>0.36922700000000003</v>
       </c>
       <c r="I23">
-        <v>91707.1</v>
+        <v>9.5747299999999994E-2</v>
       </c>
       <c r="J23">
-        <v>145375</v>
+        <v>0.14165</v>
       </c>
       <c r="K23">
-        <v>338428</v>
+        <v>0.341366</v>
       </c>
       <c r="L23">
-        <v>92897.5</v>
+        <v>9.5372899999999997E-2</v>
       </c>
       <c r="M23">
-        <v>52066.6</v>
+        <v>5.3335500000000001E-2</v>
       </c>
       <c r="N23">
-        <v>199014</v>
+        <v>0.20936399999999999</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -38802,34 +41435,34 @@
         <v>1992</v>
       </c>
       <c r="E24">
-        <v>2362350</v>
+        <v>2.4473699999999998</v>
       </c>
       <c r="F24">
-        <v>809540</v>
+        <v>0.84187199999999995</v>
       </c>
       <c r="G24">
-        <v>1054770</v>
+        <v>1.0724800000000001</v>
       </c>
       <c r="H24">
-        <v>880066</v>
+        <v>0.875857</v>
       </c>
       <c r="I24">
-        <v>256039</v>
+        <v>0.24657000000000001</v>
       </c>
       <c r="J24">
-        <v>59390.9</v>
+        <v>6.20157E-2</v>
       </c>
       <c r="K24">
-        <v>94793.3</v>
+        <v>9.2371400000000006E-2</v>
       </c>
       <c r="L24">
-        <v>219200</v>
+        <v>0.22111600000000001</v>
       </c>
       <c r="M24">
-        <v>60814.5</v>
+        <v>6.2444E-2</v>
       </c>
       <c r="N24">
-        <v>177087</v>
+        <v>0.18587000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -38846,34 +41479,34 @@
         <v>1993</v>
       </c>
       <c r="E25">
-        <v>1665970</v>
+        <v>1.7721800000000001</v>
       </c>
       <c r="F25">
-        <v>588313</v>
+        <v>0.60948599999999997</v>
       </c>
       <c r="G25">
-        <v>405624</v>
+        <v>0.42182700000000001</v>
       </c>
       <c r="H25">
-        <v>648295</v>
+        <v>0.65920900000000004</v>
       </c>
       <c r="I25">
-        <v>586714</v>
+        <v>0.58399800000000002</v>
       </c>
       <c r="J25">
-        <v>165518</v>
+        <v>0.15935199999999999</v>
       </c>
       <c r="K25">
-        <v>38674.800000000003</v>
+        <v>4.0346699999999999E-2</v>
       </c>
       <c r="L25">
-        <v>61317.8</v>
+        <v>5.96854E-2</v>
       </c>
       <c r="M25">
-        <v>143311</v>
+        <v>0.14441499999999999</v>
       </c>
       <c r="N25">
-        <v>167213</v>
+        <v>0.174979</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -38890,34 +41523,34 @@
         <v>1994</v>
       </c>
       <c r="E26">
-        <v>1701080</v>
+        <v>1.7869600000000001</v>
       </c>
       <c r="F26">
-        <v>414861</v>
+        <v>0.44130999999999998</v>
       </c>
       <c r="G26">
-        <v>294669</v>
+        <v>0.30527799999999999</v>
       </c>
       <c r="H26">
-        <v>248823</v>
+        <v>0.25878800000000002</v>
       </c>
       <c r="I26">
-        <v>429402</v>
+        <v>0.43676700000000002</v>
       </c>
       <c r="J26">
-        <v>377248</v>
+        <v>0.37530799999999997</v>
       </c>
       <c r="K26">
-        <v>107673</v>
+        <v>0.10349899999999999</v>
       </c>
       <c r="L26">
-        <v>25016.9</v>
+        <v>2.6049699999999999E-2</v>
       </c>
       <c r="M26">
-        <v>40094</v>
+        <v>3.8956499999999998E-2</v>
       </c>
       <c r="N26">
-        <v>215604</v>
+        <v>0.222192</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -38934,34 +41567,34 @@
         <v>1995</v>
       </c>
       <c r="E27">
-        <v>6739470</v>
+        <v>6.8036300000000001</v>
       </c>
       <c r="F27">
-        <v>423604</v>
+        <v>0.44499100000000003</v>
       </c>
       <c r="G27">
-        <v>207791</v>
+        <v>0.22104499999999999</v>
       </c>
       <c r="H27">
-        <v>180773</v>
+        <v>0.18732099999999999</v>
       </c>
       <c r="I27">
-        <v>164999</v>
+        <v>0.17174</v>
       </c>
       <c r="J27">
-        <v>277405</v>
+        <v>0.28220000000000001</v>
       </c>
       <c r="K27">
-        <v>247092</v>
+        <v>0.245564</v>
       </c>
       <c r="L27">
-        <v>70155</v>
+        <v>6.7342200000000005E-2</v>
       </c>
       <c r="M27">
-        <v>16476.3</v>
+        <v>1.7133599999999999E-2</v>
       </c>
       <c r="N27">
-        <v>181349</v>
+        <v>0.18571499999999999</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -38978,34 +41611,34 @@
         <v>1996</v>
       </c>
       <c r="E28">
-        <v>3154900</v>
+        <v>3.2621099999999998</v>
       </c>
       <c r="F28">
-        <v>1678380</v>
+        <v>1.6943699999999999</v>
       </c>
       <c r="G28">
-        <v>212263</v>
+        <v>0.22298599999999999</v>
       </c>
       <c r="H28">
-        <v>127817</v>
+        <v>0.13599700000000001</v>
       </c>
       <c r="I28">
-        <v>121407</v>
+        <v>0.12590699999999999</v>
       </c>
       <c r="J28">
-        <v>109885</v>
+        <v>0.114464</v>
       </c>
       <c r="K28">
-        <v>188888</v>
+        <v>0.19218499999999999</v>
       </c>
       <c r="L28">
-        <v>167652</v>
+        <v>0.16661000000000001</v>
       </c>
       <c r="M28">
-        <v>48104</v>
+        <v>4.6174899999999998E-2</v>
       </c>
       <c r="N28">
-        <v>143128</v>
+        <v>0.14704900000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -39022,34 +41655,34 @@
         <v>1997</v>
       </c>
       <c r="E29">
-        <v>1454720</v>
+        <v>1.5073000000000001</v>
       </c>
       <c r="F29">
-        <v>785703</v>
+        <v>0.81240500000000004</v>
       </c>
       <c r="G29">
-        <v>841125</v>
+        <v>0.84915600000000002</v>
       </c>
       <c r="H29">
-        <v>130671</v>
+        <v>0.137297</v>
       </c>
       <c r="I29">
-        <v>86166.7</v>
+        <v>9.1753600000000005E-2</v>
       </c>
       <c r="J29">
-        <v>81566.399999999994</v>
+        <v>8.4676699999999994E-2</v>
       </c>
       <c r="K29">
-        <v>75645.8</v>
+        <v>7.8848299999999996E-2</v>
       </c>
       <c r="L29">
-        <v>129625</v>
+        <v>0.13195200000000001</v>
       </c>
       <c r="M29">
-        <v>116260</v>
+        <v>0.115596</v>
       </c>
       <c r="N29">
-        <v>138289</v>
+        <v>0.14003399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -39066,34 +41699,34 @@
         <v>1998</v>
       </c>
       <c r="E30">
-        <v>1402140</v>
+        <v>1.3888199999999999</v>
       </c>
       <c r="F30">
-        <v>362223</v>
+        <v>0.37531900000000001</v>
       </c>
       <c r="G30">
-        <v>393324</v>
+        <v>0.40671000000000002</v>
       </c>
       <c r="H30">
-        <v>514387.00000000012</v>
+        <v>0.51949199999999995</v>
       </c>
       <c r="I30">
-        <v>85437.200000000012</v>
+        <v>8.9930800000000005E-2</v>
       </c>
       <c r="J30">
-        <v>53957.5</v>
+        <v>5.7626299999999998E-2</v>
       </c>
       <c r="K30">
-        <v>51407.3</v>
+        <v>5.3508199999999999E-2</v>
       </c>
       <c r="L30">
-        <v>47357.9</v>
+        <v>4.94835E-2</v>
       </c>
       <c r="M30">
-        <v>82050.7</v>
+        <v>8.3731299999999995E-2</v>
       </c>
       <c r="N30">
-        <v>173487</v>
+        <v>0.17504400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -39110,34 +41743,34 @@
         <v>1999</v>
       </c>
       <c r="E31">
-        <v>1757780</v>
+        <v>1.7130399999999999</v>
       </c>
       <c r="F31">
-        <v>349003</v>
+        <v>0.34568900000000002</v>
       </c>
       <c r="G31">
-        <v>180913</v>
+        <v>0.18746299999999999</v>
       </c>
       <c r="H31">
-        <v>237313</v>
+        <v>0.24551100000000001</v>
       </c>
       <c r="I31">
-        <v>317947</v>
+        <v>0.32195800000000002</v>
       </c>
       <c r="J31">
-        <v>48001.2</v>
+        <v>5.0772699999999997E-2</v>
       </c>
       <c r="K31">
-        <v>29996.3</v>
+        <v>3.21959E-2</v>
       </c>
       <c r="L31">
-        <v>28306.1</v>
+        <v>2.9606799999999999E-2</v>
       </c>
       <c r="M31">
-        <v>26395.7</v>
+        <v>2.7718E-2</v>
       </c>
       <c r="N31">
-        <v>164989</v>
+        <v>0.168405</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -39154,34 +41787,34 @@
         <v>2000</v>
       </c>
       <c r="E32">
-        <v>6625070</v>
+        <v>6.4360900000000001</v>
       </c>
       <c r="F32">
-        <v>437574</v>
+        <v>0.42643700000000001</v>
       </c>
       <c r="G32">
-        <v>174417</v>
+        <v>0.172766</v>
       </c>
       <c r="H32">
-        <v>109515</v>
+        <v>0.113521</v>
       </c>
       <c r="I32">
-        <v>148815</v>
+        <v>0.15426999999999999</v>
       </c>
       <c r="J32">
-        <v>184919</v>
+        <v>0.18799299999999999</v>
       </c>
       <c r="K32">
-        <v>27906.1</v>
+        <v>2.9642000000000002E-2</v>
       </c>
       <c r="L32">
-        <v>17310.3</v>
+        <v>1.86575E-2</v>
       </c>
       <c r="M32">
-        <v>16531.5</v>
+        <v>1.73654E-2</v>
       </c>
       <c r="N32">
-        <v>129217</v>
+        <v>0.133323</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -39198,34 +41831,34 @@
         <v>2001</v>
       </c>
       <c r="E33">
-        <v>7114160</v>
+        <v>7.0537200000000002</v>
       </c>
       <c r="F33">
-        <v>1649390</v>
+        <v>1.60233</v>
       </c>
       <c r="G33">
-        <v>218824</v>
+        <v>0.213255</v>
       </c>
       <c r="H33">
-        <v>106001</v>
+        <v>0.105015</v>
       </c>
       <c r="I33">
-        <v>70064</v>
+        <v>7.2724399999999995E-2</v>
       </c>
       <c r="J33">
-        <v>91021.2</v>
+        <v>9.4669299999999998E-2</v>
       </c>
       <c r="K33">
-        <v>114653</v>
+        <v>0.117017</v>
       </c>
       <c r="L33">
-        <v>17222.400000000001</v>
+        <v>1.83672E-2</v>
       </c>
       <c r="M33">
-        <v>10807.5</v>
+        <v>1.16963E-2</v>
       </c>
       <c r="N33">
-        <v>101390</v>
+        <v>0.105406</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -39242,34 +41875,34 @@
         <v>2002</v>
       </c>
       <c r="E34">
-        <v>1003840</v>
+        <v>1.02172</v>
       </c>
       <c r="F34">
-        <v>1770320</v>
+        <v>1.7552399999999999</v>
       </c>
       <c r="G34">
-        <v>822523</v>
+        <v>0.79897200000000002</v>
       </c>
       <c r="H34">
-        <v>131182</v>
+        <v>0.12781000000000001</v>
       </c>
       <c r="I34">
-        <v>65924.3</v>
+        <v>6.5374399999999999E-2</v>
       </c>
       <c r="J34">
-        <v>42324.100000000013</v>
+        <v>4.4078300000000001E-2</v>
       </c>
       <c r="K34">
-        <v>56332.5</v>
+        <v>5.8831899999999999E-2</v>
       </c>
       <c r="L34">
-        <v>70778.7</v>
+        <v>7.2545200000000004E-2</v>
       </c>
       <c r="M34">
-        <v>10759</v>
+        <v>1.15239E-2</v>
       </c>
       <c r="N34">
-        <v>78179.600000000006</v>
+        <v>8.2043000000000005E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -39286,34 +41919,34 @@
         <v>2003</v>
       </c>
       <c r="E35">
-        <v>776964</v>
+        <v>0.77356000000000003</v>
       </c>
       <c r="F35">
-        <v>249740</v>
+        <v>0.25417899999999999</v>
       </c>
       <c r="G35">
-        <v>881678</v>
+        <v>0.874004</v>
       </c>
       <c r="H35">
-        <v>491564</v>
+        <v>0.47722199999999998</v>
       </c>
       <c r="I35">
-        <v>82754.8</v>
+        <v>8.0640799999999999E-2</v>
       </c>
       <c r="J35">
-        <v>41553.300000000003</v>
+        <v>4.1261199999999998E-2</v>
       </c>
       <c r="K35">
-        <v>27576.1</v>
+        <v>2.8766400000000001E-2</v>
       </c>
       <c r="L35">
-        <v>36666</v>
+        <v>3.8358000000000003E-2</v>
       </c>
       <c r="M35">
-        <v>46599.7</v>
+        <v>4.7847599999999997E-2</v>
       </c>
       <c r="N35">
-        <v>63197.9</v>
+        <v>6.6715700000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -39330,34 +41963,34 @@
         <v>2004</v>
       </c>
       <c r="E36">
-        <v>731720</v>
+        <v>0.72521899999999995</v>
       </c>
       <c r="F36">
-        <v>193284</v>
+        <v>0.19243099999999999</v>
       </c>
       <c r="G36">
-        <v>124332</v>
+        <v>0.12651899999999999</v>
       </c>
       <c r="H36">
-        <v>527431</v>
+        <v>0.52252399999999999</v>
       </c>
       <c r="I36">
-        <v>315153</v>
+        <v>0.30580800000000002</v>
       </c>
       <c r="J36">
-        <v>53746.2</v>
+        <v>5.2365099999999998E-2</v>
       </c>
       <c r="K36">
-        <v>27994.6</v>
+        <v>2.7795899999999998E-2</v>
       </c>
       <c r="L36">
-        <v>18570</v>
+        <v>1.9370499999999999E-2</v>
       </c>
       <c r="M36">
-        <v>24967.4</v>
+        <v>2.6120000000000001E-2</v>
       </c>
       <c r="N36">
-        <v>78186.099999999991</v>
+        <v>8.17412E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -39374,34 +42007,34 @@
         <v>2005</v>
       </c>
       <c r="E37">
-        <v>1879320</v>
+        <v>1.77329</v>
       </c>
       <c r="F37">
-        <v>181882</v>
+        <v>0.180253</v>
       </c>
       <c r="G37">
-        <v>95767.5</v>
+        <v>9.53045E-2</v>
       </c>
       <c r="H37">
-        <v>73238</v>
+        <v>7.4431499999999998E-2</v>
       </c>
       <c r="I37">
-        <v>332828</v>
+        <v>0.32928800000000003</v>
       </c>
       <c r="J37">
-        <v>202283</v>
+        <v>0.19605600000000001</v>
       </c>
       <c r="K37">
-        <v>35823.599999999999</v>
+        <v>3.48638E-2</v>
       </c>
       <c r="L37">
-        <v>18654.900000000001</v>
+        <v>1.8501900000000002E-2</v>
       </c>
       <c r="M37">
-        <v>12515.1</v>
+        <v>1.3041199999999999E-2</v>
       </c>
       <c r="N37">
-        <v>73615.799999999988</v>
+        <v>7.7105999999999994E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -39418,34 +42051,34 @@
         <v>2006</v>
       </c>
       <c r="E38">
-        <v>6025550</v>
+        <v>5.8853</v>
       </c>
       <c r="F38">
-        <v>467103</v>
+        <v>0.44072299999999998</v>
       </c>
       <c r="G38">
-        <v>89968.3</v>
+        <v>8.9125499999999996E-2</v>
       </c>
       <c r="H38">
-        <v>55677.5</v>
+        <v>5.5316999999999998E-2</v>
       </c>
       <c r="I38">
-        <v>44800.5</v>
+        <v>4.54233E-2</v>
       </c>
       <c r="J38">
-        <v>205938</v>
+        <v>0.20327000000000001</v>
       </c>
       <c r="K38">
-        <v>129876</v>
+        <v>0.125585</v>
       </c>
       <c r="L38">
-        <v>22994.1</v>
+        <v>2.23263E-2</v>
       </c>
       <c r="M38">
-        <v>12115.7</v>
+        <v>1.1990000000000001E-2</v>
       </c>
       <c r="N38">
-        <v>60768.7</v>
+        <v>6.3748600000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -39462,34 +42095,34 @@
         <v>2007</v>
       </c>
       <c r="E39">
-        <v>5689230</v>
+        <v>5.7682500000000001</v>
       </c>
       <c r="F39">
-        <v>1497910</v>
+        <v>1.4629700000000001</v>
       </c>
       <c r="G39">
-        <v>231160</v>
+        <v>0.21801899999999999</v>
       </c>
       <c r="H39">
-        <v>52299.5</v>
+        <v>5.1718899999999998E-2</v>
       </c>
       <c r="I39">
-        <v>34087.800000000003</v>
+        <v>3.3777700000000001E-2</v>
       </c>
       <c r="J39">
-        <v>27789.599999999999</v>
+        <v>2.8100300000000002E-2</v>
       </c>
       <c r="K39">
-        <v>132613</v>
+        <v>0.13054499999999999</v>
       </c>
       <c r="L39">
-        <v>83616.399999999994</v>
+        <v>8.0638799999999997E-2</v>
       </c>
       <c r="M39">
-        <v>14978.8</v>
+        <v>1.45069E-2</v>
       </c>
       <c r="N39">
-        <v>51422.8</v>
+        <v>5.3569699999999998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -39506,34 +42139,34 @@
         <v>2008</v>
       </c>
       <c r="E40">
-        <v>7024870</v>
+        <v>6.9655300000000002</v>
       </c>
       <c r="F40">
-        <v>1414830</v>
+        <v>1.43445</v>
       </c>
       <c r="G40">
-        <v>742922</v>
+        <v>0.72538999999999998</v>
       </c>
       <c r="H40">
-        <v>135957</v>
+        <v>0.12803999999999999</v>
       </c>
       <c r="I40">
-        <v>32981.199999999997</v>
+        <v>3.25359E-2</v>
       </c>
       <c r="J40">
-        <v>21928.9</v>
+        <v>2.1673899999999999E-2</v>
       </c>
       <c r="K40">
-        <v>18580.400000000001</v>
+        <v>1.8740099999999999E-2</v>
       </c>
       <c r="L40">
-        <v>88660</v>
+        <v>8.7055199999999999E-2</v>
       </c>
       <c r="M40">
-        <v>56536.9</v>
+        <v>5.4390399999999998E-2</v>
       </c>
       <c r="N40">
-        <v>47494.2</v>
+        <v>4.8770000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -39550,34 +42183,34 @@
         <v>2009</v>
       </c>
       <c r="E41">
-        <v>3108640</v>
+        <v>3.0969199999999999</v>
       </c>
       <c r="F41">
-        <v>1748280</v>
+        <v>1.7335199999999999</v>
       </c>
       <c r="G41">
-        <v>704859</v>
+        <v>0.714611</v>
       </c>
       <c r="H41">
-        <v>443111</v>
+        <v>0.43230400000000002</v>
       </c>
       <c r="I41">
-        <v>87226.6</v>
+        <v>8.1951300000000005E-2</v>
       </c>
       <c r="J41">
-        <v>21597.9</v>
+        <v>2.1246999999999999E-2</v>
       </c>
       <c r="K41">
-        <v>14927.9</v>
+        <v>1.47128E-2</v>
       </c>
       <c r="L41">
-        <v>12647.8</v>
+        <v>1.27207E-2</v>
       </c>
       <c r="M41">
-        <v>61022.8</v>
+        <v>5.9755200000000001E-2</v>
       </c>
       <c r="N41">
-        <v>74236</v>
+        <v>7.3634599999999995E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -39594,34 +42227,34 @@
         <v>2010</v>
       </c>
       <c r="E42">
-        <v>1215790</v>
+        <v>1.2171000000000001</v>
       </c>
       <c r="F42">
-        <v>773874</v>
+        <v>0.77096100000000001</v>
       </c>
       <c r="G42">
-        <v>872920</v>
+        <v>0.86555000000000004</v>
       </c>
       <c r="H42">
-        <v>425331</v>
+        <v>0.43102800000000002</v>
       </c>
       <c r="I42">
-        <v>291343</v>
+        <v>0.28386099999999997</v>
       </c>
       <c r="J42">
-        <v>58759.7</v>
+        <v>5.5121200000000002E-2</v>
       </c>
       <c r="K42">
-        <v>15132.5</v>
+        <v>1.48635E-2</v>
       </c>
       <c r="L42">
-        <v>10459.1</v>
+        <v>1.0292300000000001E-2</v>
       </c>
       <c r="M42">
-        <v>8956.86</v>
+        <v>8.9949899999999996E-3</v>
       </c>
       <c r="N42">
-        <v>98440.6</v>
+        <v>9.7098199999999996E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -39638,34 +42271,34 @@
         <v>2011</v>
       </c>
       <c r="E43">
-        <v>5272960</v>
+        <v>4.8474500000000003</v>
       </c>
       <c r="F43">
-        <v>302637</v>
+        <v>0.30296499999999998</v>
       </c>
       <c r="G43">
-        <v>385990</v>
+        <v>0.38452999999999998</v>
       </c>
       <c r="H43">
-        <v>522186.99999999988</v>
+        <v>0.51751599999999998</v>
       </c>
       <c r="I43">
-        <v>273901</v>
+        <v>0.27722400000000003</v>
       </c>
       <c r="J43">
-        <v>191660</v>
+        <v>0.18648700000000001</v>
       </c>
       <c r="K43">
-        <v>40192.1</v>
+        <v>3.7652699999999997E-2</v>
       </c>
       <c r="L43">
-        <v>10350.6</v>
+        <v>1.0153000000000001E-2</v>
       </c>
       <c r="M43">
-        <v>7233.09</v>
+        <v>7.1087700000000004E-3</v>
       </c>
       <c r="N43">
-        <v>77967</v>
+        <v>7.7119699999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -39682,34 +42315,34 @@
         <v>2012</v>
       </c>
       <c r="E44">
-        <v>856500</v>
+        <v>0.884355</v>
       </c>
       <c r="F44">
-        <v>1312830</v>
+        <v>1.20689</v>
       </c>
       <c r="G44">
-        <v>151172</v>
+        <v>0.15133199999999999</v>
       </c>
       <c r="H44">
-        <v>231813</v>
+        <v>0.23081399999999999</v>
       </c>
       <c r="I44">
-        <v>334838</v>
+        <v>0.33144499999999999</v>
       </c>
       <c r="J44">
-        <v>178761</v>
+        <v>0.18071699999999999</v>
       </c>
       <c r="K44">
-        <v>130011</v>
+        <v>0.126356</v>
       </c>
       <c r="L44">
-        <v>27262.9</v>
+        <v>2.5511200000000001E-2</v>
       </c>
       <c r="M44">
-        <v>7099.33</v>
+        <v>6.9563999999999997E-3</v>
       </c>
       <c r="N44">
-        <v>61648.9</v>
+        <v>6.1044599999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -39726,34 +42359,34 @@
         <v>2013</v>
       </c>
       <c r="E45">
-        <v>37178700</v>
+        <v>44.726100000000002</v>
       </c>
       <c r="F45">
-        <v>213282</v>
+        <v>0.22022</v>
       </c>
       <c r="G45">
-        <v>656751</v>
+        <v>0.60376700000000005</v>
       </c>
       <c r="H45">
-        <v>91321.9</v>
+        <v>9.1395199999999996E-2</v>
       </c>
       <c r="I45">
-        <v>147203</v>
+        <v>0.14635600000000001</v>
       </c>
       <c r="J45">
-        <v>213969</v>
+        <v>0.21146300000000001</v>
       </c>
       <c r="K45">
-        <v>118570</v>
+        <v>0.119681</v>
       </c>
       <c r="L45">
-        <v>86223.900000000009</v>
+        <v>8.3670999999999995E-2</v>
       </c>
       <c r="M45">
-        <v>18287.900000000001</v>
+        <v>1.7088099999999998E-2</v>
       </c>
       <c r="N45">
-        <v>49268.800000000003</v>
+        <v>4.8829699999999997E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -39770,34 +42403,34 @@
         <v>2014</v>
       </c>
       <c r="E46">
-        <v>2039080</v>
+        <v>2.7403900000000001</v>
       </c>
       <c r="F46">
-        <v>9258850</v>
+        <v>11.138500000000001</v>
       </c>
       <c r="G46">
-        <v>106780</v>
+        <v>0.110262</v>
       </c>
       <c r="H46">
-        <v>398845</v>
+        <v>0.36674299999999999</v>
       </c>
       <c r="I46">
-        <v>58328</v>
+        <v>5.8293600000000001E-2</v>
       </c>
       <c r="J46">
-        <v>94187.7</v>
+        <v>9.3424699999999999E-2</v>
       </c>
       <c r="K46">
-        <v>142027</v>
+        <v>0.14002700000000001</v>
       </c>
       <c r="L46">
-        <v>78691</v>
+        <v>7.9239000000000004E-2</v>
       </c>
       <c r="M46">
-        <v>57878.400000000001</v>
+        <v>5.6036700000000002E-2</v>
       </c>
       <c r="N46">
-        <v>48057.8</v>
+        <v>4.6971499999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -39814,34 +42447,34 @@
         <v>2015</v>
       </c>
       <c r="E47">
-        <v>37888.1</v>
+        <v>6.6758999999999999E-2</v>
       </c>
       <c r="F47">
-        <v>507798</v>
+        <v>0.68246399999999996</v>
       </c>
       <c r="G47">
-        <v>4634100</v>
+        <v>5.5763699999999998</v>
       </c>
       <c r="H47">
-        <v>64497.8</v>
+        <v>6.6738699999999998E-2</v>
       </c>
       <c r="I47">
-        <v>242211</v>
+        <v>0.222665</v>
       </c>
       <c r="J47">
-        <v>34137</v>
+        <v>3.3784799999999997E-2</v>
       </c>
       <c r="K47">
-        <v>56896.7</v>
+        <v>5.58062E-2</v>
       </c>
       <c r="L47">
-        <v>85755.6</v>
+        <v>8.3598000000000006E-2</v>
       </c>
       <c r="M47">
-        <v>48112.9</v>
+        <v>4.7917099999999997E-2</v>
       </c>
       <c r="N47">
-        <v>70174</v>
+        <v>6.8021700000000004E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -39858,34 +42491,34 @@
         <v>2016</v>
       </c>
       <c r="E48">
-        <v>5952.51</v>
+        <v>9.4644299999999994E-3</v>
       </c>
       <c r="F48">
-        <v>9434.8799999999992</v>
+        <v>1.6625000000000001E-2</v>
       </c>
       <c r="G48">
-        <v>253981</v>
+        <v>0.34152399999999999</v>
       </c>
       <c r="H48">
-        <v>2778960</v>
+        <v>3.3605999999999998</v>
       </c>
       <c r="I48">
-        <v>38241.199999999997</v>
+        <v>3.97565E-2</v>
       </c>
       <c r="J48">
-        <v>138434</v>
+        <v>0.12578900000000001</v>
       </c>
       <c r="K48">
-        <v>20149.7</v>
+        <v>1.9656E-2</v>
       </c>
       <c r="L48">
-        <v>33571</v>
+        <v>3.24488E-2</v>
       </c>
       <c r="M48">
-        <v>51252.399999999987</v>
+        <v>4.9252700000000003E-2</v>
       </c>
       <c r="N48">
-        <v>78410.900000000009</v>
+        <v>7.6532100000000006E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -39902,34 +42535,34 @@
         <v>2017</v>
       </c>
       <c r="E49">
-        <v>2124160</v>
+        <v>1.9304399999999999</v>
       </c>
       <c r="F49">
-        <v>1482.35</v>
+        <v>2.3569699999999999E-3</v>
       </c>
       <c r="G49">
-        <v>4721.07</v>
+        <v>8.3220700000000009E-3</v>
       </c>
       <c r="H49">
-        <v>153116</v>
+        <v>0.20683199999999999</v>
       </c>
       <c r="I49">
-        <v>1708700</v>
+        <v>2.1011500000000001</v>
       </c>
       <c r="J49">
-        <v>23210.7</v>
+        <v>2.45854E-2</v>
       </c>
       <c r="K49">
-        <v>87042.5</v>
+        <v>8.0575300000000002E-2</v>
       </c>
       <c r="L49">
-        <v>12667</v>
+        <v>1.2587900000000001E-2</v>
       </c>
       <c r="M49">
-        <v>21360</v>
+        <v>2.1029599999999999E-2</v>
       </c>
       <c r="N49">
-        <v>89049.4</v>
+        <v>8.7516899999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -39946,34 +42579,210 @@
         <v>2018</v>
       </c>
       <c r="E50">
-        <v>5414880</v>
+        <v>7.6165000000000003</v>
       </c>
       <c r="F50">
-        <v>528978</v>
+        <v>0.48071599999999998</v>
       </c>
       <c r="G50">
-        <v>741.74400000000003</v>
+        <v>1.1789999999999999E-3</v>
       </c>
       <c r="H50">
-        <v>2844.83</v>
+        <v>5.0109400000000002E-3</v>
       </c>
       <c r="I50">
-        <v>93327.900000000009</v>
+        <v>0.128188</v>
       </c>
       <c r="J50">
-        <v>1020290</v>
+        <v>1.2953600000000001</v>
       </c>
       <c r="K50">
-        <v>14343.6</v>
+        <v>1.5713100000000001E-2</v>
       </c>
       <c r="L50">
-        <v>53776.3</v>
+        <v>5.1488899999999997E-2</v>
       </c>
       <c r="M50">
-        <v>7922.4299999999994</v>
+        <v>8.14053E-3</v>
       </c>
       <c r="N50">
-        <v>76369</v>
+        <v>7.6445899999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>2019</v>
+      </c>
+      <c r="E51">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="F51">
+        <v>1.8963099999999999</v>
+      </c>
+      <c r="G51">
+        <v>0.23999799999999999</v>
+      </c>
+      <c r="H51">
+        <v>6.9963100000000004E-4</v>
+      </c>
+      <c r="I51">
+        <v>3.0342199999999998E-3</v>
+      </c>
+      <c r="J51">
+        <v>7.7664300000000006E-2</v>
+      </c>
+      <c r="K51">
+        <v>0.81429600000000002</v>
+      </c>
+      <c r="L51">
+        <v>9.8768299999999996E-3</v>
+      </c>
+      <c r="M51">
+        <v>3.27608E-2</v>
+      </c>
+      <c r="N51">
+        <v>5.9593899999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+      <c r="E52">
+        <v>0.18870500000000001</v>
+      </c>
+      <c r="F52">
+        <v>1.33447</v>
+      </c>
+      <c r="G52">
+        <v>0.944635</v>
+      </c>
+      <c r="H52">
+        <v>0.14044999999999999</v>
+      </c>
+      <c r="I52">
+        <v>4.1739099999999998E-4</v>
+      </c>
+      <c r="J52">
+        <v>1.82081E-3</v>
+      </c>
+      <c r="K52">
+        <v>4.8388100000000003E-2</v>
+      </c>
+      <c r="L52">
+        <v>0.50732900000000003</v>
+      </c>
+      <c r="M52">
+        <v>6.2296499999999998E-3</v>
+      </c>
+      <c r="N52">
+        <v>6.3532199999999997E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2021</v>
+      </c>
+      <c r="E53">
+        <v>10.105700000000001</v>
+      </c>
+      <c r="F53">
+        <v>4.6954500000000003E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.66228299999999996</v>
+      </c>
+      <c r="H53">
+        <v>0.54430500000000004</v>
+      </c>
+      <c r="I53">
+        <v>8.3831500000000003E-2</v>
+      </c>
+      <c r="J53">
+        <v>2.5287299999999998E-4</v>
+      </c>
+      <c r="K53">
+        <v>1.1464400000000001E-3</v>
+      </c>
+      <c r="L53">
+        <v>3.0468100000000001E-2</v>
+      </c>
+      <c r="M53">
+        <v>0.323353</v>
+      </c>
+      <c r="N53">
+        <v>4.9206399999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54">
+        <v>6.2655699999999995E-2</v>
+      </c>
+      <c r="F54">
+        <v>2.5146999999999999</v>
+      </c>
+      <c r="G54">
+        <v>2.332E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.38375199999999998</v>
+      </c>
+      <c r="I54">
+        <v>0.328816</v>
+      </c>
+      <c r="J54">
+        <v>5.1467199999999998E-2</v>
+      </c>
+      <c r="K54">
+        <v>1.6136199999999999E-4</v>
+      </c>
+      <c r="L54">
+        <v>7.3158700000000001E-4</v>
+      </c>
+      <c r="M54">
+        <v>1.9677300000000002E-2</v>
+      </c>
+      <c r="N54">
+        <v>0.25032300000000002</v>
       </c>
     </row>
   </sheetData>
